--- a/dataset/impedance_frequency_sweep/55.xlsx
+++ b/dataset/impedance_frequency_sweep/55.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\My Drive\Professional\Academic\Postdoc\Projects\Impedance\data\patients data\palmsense files Jan 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHubs\postdoc\wound_EHR_analyzer_private\dataset\impedance_frequency_sweep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC1137C-01D4-4202-BD6C-4BC6D434FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD3EBF13-18C6-4D11-B356-D401F22DDDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="788" yWindow="6128" windowWidth="20167" windowHeight="11850" activeTab="2" xr2:uid="{E357233B-1F4B-4159-88A6-022DDD9A79FD}"/>
+    <workbookView xWindow="735" yWindow="1110" windowWidth="31335" windowHeight="17190" xr2:uid="{739C35AB-89EA-4B77-A763-A1F116C72052}"/>
   </bookViews>
   <sheets>
-    <sheet name="55_visit_3 11.3" sheetId="4" r:id="rId1"/>
-    <sheet name="55_visit_5 13.6" sheetId="3" r:id="rId2"/>
-    <sheet name="55_visit_7 12" sheetId="2" r:id="rId3"/>
+    <sheet name="Impedance Spectroscopy S4" sheetId="5" r:id="rId1"/>
+    <sheet name="Impedance Spectroscopy 1 S3" sheetId="4" r:id="rId2"/>
+    <sheet name="Impedance Spectroscopy 2 S2" sheetId="3" r:id="rId3"/>
+    <sheet name="Impedance Spectroscopy 3 S1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
-    <t>55_visit_7</t>
+    <t>Impedance Spectroscopy [3]</t>
   </si>
   <si>
     <t>TimeScan at 65 freqs [1]</t>
@@ -70,19 +72,25 @@
     <t>Cs / F</t>
   </si>
   <si>
-    <t>55_visit_5</t>
+    <t>Impedance Spectroscopy [2]</t>
   </si>
   <si>
     <t>TimeScan at 64 freqs</t>
   </si>
   <si>
-    <t>55_visit_3</t>
+    <t>Impedance Spectroscopy [1]</t>
   </si>
   <si>
     <t>TimeScan at 65 freqs</t>
   </si>
   <si>
     <t>22/11/2024 12:10:42</t>
+  </si>
+  <si>
+    <t>Impedance Spectroscopy</t>
+  </si>
+  <si>
+    <t>TimeScan at 60 freqs</t>
   </si>
 </sst>
 </file>
@@ -454,24 +462,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FE3877-B4B7-4D43-9E27-E2920DF55EB3}">
-  <dimension ref="A1:G132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CD9C9-68EA-4459-A8B1-5E2DAD1655DD}">
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45515.638831018521</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -499,2992 +507,2762 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="B3">
-        <v>27.7181740884647</v>
+        <v>35.859111145476426</v>
       </c>
       <c r="C3">
-        <v>0.2384185791015625</v>
+        <v>-0.19311904907226563</v>
       </c>
       <c r="D3">
-        <v>99.557312440904312</v>
+        <v>138.52706943899275</v>
       </c>
       <c r="E3">
-        <v>88.13272598913629</v>
+        <v>112.27063427954491</v>
       </c>
       <c r="F3">
-        <v>46.306382607364839</v>
+        <v>81.148343457055191</v>
       </c>
       <c r="G3">
-        <v>3.436997971562184E-8</v>
+        <v>2.4516049298055342E-8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>89768.7109375</v>
+        <v>71923.3125</v>
       </c>
       <c r="B4">
-        <v>28.965408023997398</v>
+        <v>37.55681033294632</v>
       </c>
       <c r="C4">
-        <v>-2.384185791015625E-2</v>
+        <v>-0.12636184692382813</v>
       </c>
       <c r="D4">
-        <v>100.63463528632269</v>
+        <v>144.14494255365764</v>
       </c>
       <c r="E4">
-        <v>88.046475041223047</v>
+        <v>114.27080905318826</v>
       </c>
       <c r="F4">
-        <v>48.735490682114531</v>
+        <v>87.863227018628493</v>
       </c>
       <c r="G4">
-        <v>3.6378919832074486E-8</v>
+        <v>2.5185078027341729E-8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>80584.21875</v>
+        <v>64662.03125</v>
       </c>
       <c r="B5">
-        <v>31.645280922300465</v>
+        <v>39.284164112234144</v>
       </c>
       <c r="C5">
-        <v>-7.152557373046875E-2</v>
+        <v>-8.3446502685546875E-2</v>
       </c>
       <c r="D5">
-        <v>100.93584739017042</v>
+        <v>150.55978055707379</v>
       </c>
       <c r="E5">
-        <v>85.927954791017967</v>
+        <v>116.53556457405291</v>
       </c>
       <c r="F5">
-        <v>52.95688693460508</v>
+        <v>95.329479757318296</v>
       </c>
       <c r="G5">
-        <v>3.729474865110527E-8</v>
+        <v>2.5819246604119727E-8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>72339.4140625</v>
+        <v>58133.84375</v>
       </c>
       <c r="B6">
-        <v>32.890211216833244</v>
+        <v>41.070312997358329</v>
       </c>
       <c r="C6">
-        <v>2.384185791015625E-2</v>
+        <v>-0.18358230590820313</v>
       </c>
       <c r="D6">
-        <v>106.32946685618877</v>
+        <v>157.31869724870651</v>
       </c>
       <c r="E6">
-        <v>89.286198571042291</v>
+        <v>118.60317953643941</v>
       </c>
       <c r="F6">
-        <v>57.74019628173906</v>
+        <v>103.35597857829659</v>
       </c>
       <c r="G6">
-        <v>3.8103677172904969E-8</v>
+        <v>2.6488385564912106E-8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>64938.1640625</v>
+        <v>52264.73046875</v>
       </c>
       <c r="B7">
-        <v>34.32901686326386</v>
+        <v>42.82868462053321</v>
       </c>
       <c r="C7">
-        <v>0.11920928955078125</v>
+        <v>-0.14066696166992188</v>
       </c>
       <c r="D7">
-        <v>111.68769562251364</v>
+        <v>164.96804595528857</v>
       </c>
       <c r="E7">
-        <v>92.233128261989123</v>
+        <v>120.98585193182495</v>
       </c>
       <c r="F7">
-        <v>62.985644431685522</v>
+        <v>112.1466888438385</v>
       </c>
       <c r="G7">
-        <v>3.8911551579243511E-8</v>
+        <v>2.7153446505027491E-8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>58294.15234375</v>
+        <v>46988.15625</v>
       </c>
       <c r="B8">
-        <v>36.093980559291261</v>
+        <v>44.594232925096222</v>
       </c>
       <c r="C8">
-        <v>-7.152557373046875E-2</v>
+        <v>-0.13113021850585938</v>
       </c>
       <c r="D8">
-        <v>116.4780783884249</v>
+        <v>173.54047295858194</v>
       </c>
       <c r="E8">
-        <v>94.120318555743097</v>
+        <v>123.57760109688518</v>
       </c>
       <c r="F8">
-        <v>68.618571684533748</v>
+        <v>121.83953488842378</v>
       </c>
       <c r="G8">
-        <v>3.9788124315159577E-8</v>
+        <v>2.7799916722497409E-8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>52329.91015625</v>
+        <v>42244.296875</v>
       </c>
       <c r="B9">
-        <v>37.721418565872561</v>
+        <v>46.385675074136707</v>
       </c>
       <c r="C9">
-        <v>-0.26941299438476563</v>
+        <v>-0.15020370483398438</v>
       </c>
       <c r="D9">
-        <v>122.08528100032161</v>
+        <v>183.06965426477615</v>
       </c>
       <c r="E9">
-        <v>96.568831449998626</v>
+        <v>126.28155324270172</v>
       </c>
       <c r="F9">
-        <v>74.6945555533283</v>
+        <v>132.54232389405041</v>
       </c>
       <c r="G9">
-        <v>4.0717508438782101E-8</v>
+        <v>2.8424803083575862E-8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>46975.88671875</v>
+        <v>37979.37109375</v>
       </c>
       <c r="B10">
-        <v>39.656829887803674</v>
+        <v>48.116464359442169</v>
       </c>
       <c r="C10">
-        <v>-0.22649765014648438</v>
+        <v>-7.3909759521484375E-2</v>
       </c>
       <c r="D10">
-        <v>127.41563593686115</v>
+        <v>193.53271774524939</v>
       </c>
       <c r="E10">
-        <v>98.094829173338908</v>
+        <v>129.20605069882672</v>
       </c>
       <c r="F10">
-        <v>81.315120184675379</v>
+        <v>144.08577063913907</v>
       </c>
       <c r="G10">
-        <v>4.1665235108319237E-8</v>
+        <v>2.908380800848536E-8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>42169.6484375</v>
+        <v>34145.02734375</v>
       </c>
       <c r="B11">
-        <v>41.462472977259189</v>
+        <v>49.829343982517742</v>
       </c>
       <c r="C11">
-        <v>-0.28371810913085938</v>
+        <v>-7.152557373046875E-3</v>
       </c>
       <c r="D11">
-        <v>133.73074152734884</v>
+        <v>204.93263926308725</v>
       </c>
       <c r="E11">
-        <v>100.21642107490779</v>
+        <v>132.19516510510115</v>
       </c>
       <c r="F11">
-        <v>88.547050636321941</v>
+        <v>156.59446017713941</v>
       </c>
       <c r="G11">
-        <v>4.2623199927590232E-8</v>
+        <v>2.9765711821165217E-8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>37855.15234375</v>
+        <v>30697.791015625</v>
       </c>
       <c r="B12">
-        <v>43.289598257230921</v>
+        <v>51.568503902049493</v>
       </c>
       <c r="C12">
-        <v>-0.18358230590820313</v>
+        <v>-9.7751617431640625E-2</v>
       </c>
       <c r="D12">
-        <v>140.8556618649354</v>
+        <v>217.91680777559432</v>
       </c>
       <c r="E12">
-        <v>102.52844924556648</v>
+        <v>135.45240054416311</v>
       </c>
       <c r="F12">
-        <v>96.582786120034427</v>
+        <v>170.70554266903264</v>
       </c>
       <c r="G12">
-        <v>4.3530675252042826E-8</v>
+        <v>3.0371440023850022E-8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>33982.08203125</v>
+        <v>27598.583984375</v>
       </c>
       <c r="B13">
-        <v>45.120156294979452</v>
+        <v>53.186014126517499</v>
       </c>
       <c r="C13">
-        <v>-0.11205673217773438</v>
+        <v>-0.15974044799804688</v>
       </c>
       <c r="D13">
-        <v>148.70684989047794</v>
+        <v>232.24690429874755</v>
       </c>
       <c r="E13">
-        <v>104.93087502253924</v>
+        <v>139.16676676455808</v>
       </c>
       <c r="F13">
-        <v>105.37190646160575</v>
+        <v>185.93341707356075</v>
       </c>
       <c r="G13">
-        <v>4.4447292388669626E-8</v>
+        <v>3.1015292464577551E-8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>30505.279296875</v>
+        <v>24812.26953125</v>
       </c>
       <c r="B14">
-        <v>46.99339684866893</v>
+        <v>54.868797487027393</v>
       </c>
       <c r="C14">
-        <v>-0.21696090698242188</v>
+        <v>-9.2983245849609375E-2</v>
       </c>
       <c r="D14">
-        <v>157.48877881085576</v>
+        <v>248.07751132879798</v>
       </c>
       <c r="E14">
-        <v>107.42036228265597</v>
+        <v>142.75638253898117</v>
       </c>
       <c r="F14">
-        <v>115.16762226597193</v>
+        <v>202.88683267150179</v>
       </c>
       <c r="G14">
-        <v>4.5301723547909633E-8</v>
+        <v>3.1615479950411438E-8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>27384.197265625</v>
+        <v>22307.2578125</v>
       </c>
       <c r="B15">
-        <v>48.741880236577032</v>
+        <v>56.394953059448113</v>
       </c>
       <c r="C15">
-        <v>-0.29802322387695313</v>
+        <v>-0.12159347534179688</v>
       </c>
       <c r="D15">
-        <v>167.3302916715987</v>
+        <v>265.45814951582247</v>
       </c>
       <c r="E15">
-        <v>110.34635518421516</v>
+        <v>146.92177230958902</v>
       </c>
       <c r="F15">
-        <v>125.78993762802067</v>
+        <v>221.09279039754787</v>
       </c>
       <c r="G15">
-        <v>4.6203429764660411E-8</v>
+        <v>3.227002962650464E-8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>24582.44140625</v>
+        <v>20055.1484375</v>
       </c>
       <c r="B16">
-        <v>50.506264582774641</v>
+        <v>57.920778437303539</v>
       </c>
       <c r="C16">
-        <v>-0.23126602172851563</v>
+        <v>-0.10251998901367188</v>
       </c>
       <c r="D16">
-        <v>178.06024290863283</v>
+        <v>285.19093602872272</v>
       </c>
       <c r="E16">
-        <v>113.24521922337911</v>
+        <v>151.46243466009665</v>
       </c>
       <c r="F16">
-        <v>137.40804353359425</v>
+        <v>241.6464377551942</v>
       </c>
       <c r="G16">
-        <v>4.7117578519311608E-8</v>
+        <v>3.2840809496693064E-8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>22067.33984375</v>
+        <v>18030.408203125</v>
       </c>
       <c r="B17">
-        <v>52.220044614660324</v>
+        <v>59.402759808107227</v>
       </c>
       <c r="C17">
-        <v>-0.27418136596679688</v>
+        <v>-3.5762786865234375E-2</v>
       </c>
       <c r="D17">
-        <v>189.98052062383883</v>
+        <v>306.60463997131382</v>
       </c>
       <c r="E17">
-        <v>116.38787744049499</v>
+        <v>156.0617479982451</v>
       </c>
       <c r="F17">
-        <v>150.15478747413005</v>
+        <v>263.91501674529854</v>
       </c>
       <c r="G17">
-        <v>4.8032032529652349E-8</v>
+        <v>3.3446484012735858E-8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>19809.568359375</v>
+        <v>16210.08203125</v>
       </c>
       <c r="B18">
-        <v>53.981610514074028</v>
+        <v>60.821449393845768</v>
       </c>
       <c r="C18">
-        <v>-0.24080276489257813</v>
+        <v>-5.0067901611328125E-2</v>
       </c>
       <c r="D18">
-        <v>203.34588092538348</v>
+        <v>330.32786998515297</v>
       </c>
       <c r="E18">
-        <v>119.57650450169504</v>
+        <v>161.04568314137305</v>
       </c>
       <c r="F18">
-        <v>164.47190295146567</v>
+        <v>288.4108001279713</v>
       </c>
       <c r="G18">
-        <v>4.8848744020594336E-8</v>
+        <v>3.4042653127856011E-8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>17782.794921875</v>
+        <v>14573.53515625</v>
       </c>
       <c r="B19">
-        <v>55.644890140518761</v>
+        <v>62.106527986910905</v>
       </c>
       <c r="C19">
-        <v>-0.17881393432617188</v>
+        <v>-2.6226043701171875E-2</v>
       </c>
       <c r="D19">
-        <v>218.24341843602519</v>
+        <v>356.34736730044375</v>
       </c>
       <c r="E19">
-        <v>123.15920654264129</v>
+        <v>166.70967508237399</v>
       </c>
       <c r="F19">
-        <v>180.17213861868046</v>
+        <v>314.9465516812125</v>
       </c>
       <c r="G19">
-        <v>4.9674382599096618E-8</v>
+        <v>3.4675151003065561E-8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>15963.3857421875</v>
+        <v>13102.2109375</v>
       </c>
       <c r="B20">
-        <v>57.228856134847298</v>
+        <v>63.340961692750831</v>
       </c>
       <c r="C20">
-        <v>-0.16450881958007813</v>
+        <v>-4.5299530029296875E-2</v>
       </c>
       <c r="D20">
-        <v>234.29771880042776</v>
+        <v>385.93957045313272</v>
       </c>
       <c r="E20">
-        <v>126.82179461238864</v>
+        <v>173.1634428806625</v>
       </c>
       <c r="F20">
-        <v>197.00673452036463</v>
+        <v>344.9112553850108</v>
       </c>
       <c r="G20">
-        <v>5.0607402965625117E-8</v>
+        <v>3.5218282908077376E-8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>14330.1259765625</v>
+        <v>11779.4296875</v>
       </c>
       <c r="B21">
-        <v>58.739300507342733</v>
+        <v>64.605303850167729</v>
       </c>
       <c r="C21">
-        <v>-0.17404556274414063</v>
+        <v>-5.0067901611328125E-2</v>
       </c>
       <c r="D21">
-        <v>252.71953653939474</v>
+        <v>417.85058543342728</v>
       </c>
       <c r="E21">
-        <v>131.1444811067509</v>
+        <v>179.19585457390306</v>
       </c>
       <c r="F21">
-        <v>216.02844540459836</v>
+        <v>377.47577068016767</v>
       </c>
       <c r="G21">
-        <v>5.1411370705400213E-8</v>
+        <v>3.5793715923209917E-8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>12863.9697265625</v>
+        <v>10590.1953125</v>
       </c>
       <c r="B22">
-        <v>60.142063727877108</v>
+        <v>65.743706044286796</v>
       </c>
       <c r="C22">
-        <v>-0.16927719116210938</v>
+        <v>-6.4373016357421875E-2</v>
       </c>
       <c r="D22">
-        <v>273.03176990056494</v>
+        <v>453.45597556145225</v>
       </c>
       <c r="E22">
-        <v>135.92918684348516</v>
+        <v>186.28833379053324</v>
       </c>
       <c r="F22">
-        <v>236.79020997309826</v>
+        <v>413.42348562452912</v>
       </c>
       <c r="G22">
-        <v>5.2249408663216214E-8</v>
+        <v>3.6351389632360885E-8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>11547.8203125</v>
+        <v>9521.0234375</v>
       </c>
       <c r="B23">
-        <v>61.54705155105173</v>
+        <v>67.03632200210933</v>
       </c>
       <c r="C23">
-        <v>-0.17881393432617188</v>
+        <v>0.16450881958007813</v>
       </c>
       <c r="D23">
-        <v>295.11783529299964</v>
+        <v>488.2407561944093</v>
       </c>
       <c r="E23">
-        <v>140.60502979695079</v>
+        <v>190.48591361247892</v>
       </c>
       <c r="F23">
-        <v>259.47015686553368</v>
+        <v>449.54883241368543</v>
       </c>
       <c r="G23">
-        <v>5.311689741585043E-8</v>
+        <v>3.7184301123473883E-8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>10366.3291015625</v>
+        <v>8559.7939453125</v>
       </c>
       <c r="B24">
-        <v>62.945000968525953</v>
+        <v>68.000007102049423</v>
       </c>
       <c r="C24">
-        <v>-0.18358230590820313</v>
+        <v>0.16927719116210938</v>
       </c>
       <c r="D24">
-        <v>319.67439901362286</v>
+        <v>532.15533059405152</v>
       </c>
       <c r="E24">
-        <v>145.40248750976832</v>
+        <v>199.34883440225613</v>
       </c>
       <c r="F24">
-        <v>284.69253241118327</v>
+        <v>493.40585535857406</v>
       </c>
       <c r="G24">
-        <v>5.3928589776191814E-8</v>
+        <v>3.7683611891567749E-8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>9305.720703125</v>
+        <v>7695.609375</v>
       </c>
       <c r="B25">
-        <v>64.463972655760983</v>
+        <v>68.862990405680534</v>
       </c>
       <c r="C25">
-        <v>6.9141387939453125E-2</v>
+        <v>0.16450881958007813</v>
       </c>
       <c r="D25">
-        <v>343.94808699860863</v>
+        <v>580.33010695976429</v>
       </c>
       <c r="E25">
-        <v>148.26864381492072</v>
+        <v>209.26666765767413</v>
       </c>
       <c r="F25">
-        <v>310.34931256776872</v>
+        <v>541.28596402584105</v>
       </c>
       <c r="G25">
-        <v>5.510859390899892E-8</v>
+        <v>3.8207652127291418E-8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>8353.625</v>
+        <v>6918.6708984375</v>
       </c>
       <c r="B26">
-        <v>65.563293990910765</v>
+        <v>69.607686767299199</v>
       </c>
       <c r="C26">
-        <v>5.0067901611328125E-2</v>
+        <v>0.15497207641601563</v>
       </c>
       <c r="D26">
-        <v>374.43687025280474</v>
+        <v>632.4207103802737</v>
       </c>
       <c r="E26">
-        <v>154.89995237861879</v>
+        <v>220.36465594144173</v>
       </c>
       <c r="F26">
-        <v>340.89437448837043</v>
+        <v>592.78611094533926</v>
       </c>
       <c r="G26">
-        <v>5.5888869066957246E-8</v>
+        <v>3.8806050024660987E-8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>7498.94189453125</v>
+        <v>6220.171875</v>
       </c>
       <c r="B27">
-        <v>66.664079579281832</v>
+        <v>70.425740998787816</v>
       </c>
       <c r="C27">
-        <v>4.5299530029296875E-2</v>
+        <v>0.17881393432617188</v>
       </c>
       <c r="D27">
-        <v>407.770524400814</v>
+        <v>690.1287293505676</v>
       </c>
       <c r="E27">
-        <v>161.52656006225345</v>
+        <v>231.21265656156976</v>
       </c>
       <c r="F27">
-        <v>374.4141703576002</v>
+        <v>650.24485428242383</v>
       </c>
       <c r="G27">
-        <v>5.6684962823751667E-8</v>
+        <v>3.9349645333478593E-8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>6731.70361328125</v>
+        <v>5592.19189453125</v>
       </c>
       <c r="B28">
-        <v>67.648765429255164</v>
+        <v>71.089571303954159</v>
       </c>
       <c r="C28">
-        <v>2.6226043701171875E-2</v>
+        <v>0.19311904907226563</v>
       </c>
       <c r="D28">
-        <v>445.47531838797369</v>
+        <v>754.37151486314406</v>
       </c>
       <c r="E28">
-        <v>169.40684254151844</v>
+        <v>244.48397354467951</v>
       </c>
       <c r="F28">
-        <v>412.00677299406101</v>
+        <v>713.65535737968037</v>
       </c>
       <c r="G28">
-        <v>5.7383996292919258E-8</v>
+        <v>3.9879484480748073E-8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>6042.9638671875</v>
+        <v>5027.61181640625</v>
       </c>
       <c r="B29">
-        <v>68.5234463812412</v>
+        <v>71.70040799093816</v>
       </c>
       <c r="C29">
-        <v>5.4836273193359375E-2</v>
+        <v>0.16927719116210938</v>
       </c>
       <c r="D29">
-        <v>486.54286089426802</v>
+        <v>823.89117278404899</v>
       </c>
       <c r="E29">
-        <v>178.1332930143046</v>
+        <v>258.69004274189314</v>
       </c>
       <c r="F29">
-        <v>452.76095835115791</v>
+        <v>782.22511234150056</v>
       </c>
       <c r="G29">
-        <v>5.8170281258779826E-8</v>
+        <v>4.0469388208708086E-8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>5424.69091796875</v>
+        <v>4520.03125</v>
       </c>
       <c r="B30">
-        <v>69.364776356580521</v>
+        <v>72.118912817213499</v>
       </c>
       <c r="C30">
-        <v>5.4836273193359375E-2</v>
+        <v>0.17404556274414063</v>
       </c>
       <c r="D30">
-        <v>532.23538658696862</v>
+        <v>901.49992661218766</v>
       </c>
       <c r="E30">
-        <v>187.5688205069813</v>
+        <v>276.79878073942382</v>
       </c>
       <c r="F30">
-        <v>498.08879159141873</v>
+        <v>857.95370076883989</v>
       </c>
       <c r="G30">
-        <v>5.8903128806345914E-8</v>
+        <v>4.104070782016307E-8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>4869.67529296875</v>
+        <v>4063.695068359375</v>
       </c>
       <c r="B31">
-        <v>70.124985372738934</v>
+        <v>72.710039814525686</v>
       </c>
       <c r="C31">
-        <v>4.5299530029296875E-2</v>
+        <v>0.17881393432617188</v>
       </c>
       <c r="D31">
-        <v>582.30017617507997</v>
+        <v>984.31838663846656</v>
       </c>
       <c r="E31">
-        <v>197.96428799256032</v>
+        <v>292.54687467695118</v>
       </c>
       <c r="F31">
-        <v>547.61632175559544</v>
+        <v>939.8398865718043</v>
       </c>
       <c r="G31">
-        <v>5.9682051642153866E-8</v>
+        <v>4.1672077039989496E-8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>4371.44482421875</v>
+        <v>3653.429931640625</v>
       </c>
       <c r="B32">
-        <v>70.837809716934345</v>
+        <v>73.11467308349846</v>
       </c>
       <c r="C32">
-        <v>5.0067901611328125E-2</v>
+        <v>0.18835067749023438</v>
       </c>
       <c r="D32">
-        <v>636.93884968467751</v>
+        <v>1080.2303656039878</v>
       </c>
       <c r="E32">
-        <v>209.07095920902867</v>
+        <v>313.76063356935776</v>
       </c>
       <c r="F32">
-        <v>601.64809669195904</v>
+        <v>1033.6594737122475</v>
       </c>
       <c r="G32">
-        <v>6.0513543307172506E-8</v>
+        <v>4.2144592574940362E-8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>3924.189697265625</v>
+        <v>3284.584716796875</v>
       </c>
       <c r="B33">
-        <v>71.39100845546875</v>
+        <v>73.428333966839745</v>
       </c>
       <c r="C33">
-        <v>0.10728836059570313</v>
+        <v>0.17881393432617188</v>
       </c>
       <c r="D33">
-        <v>697.72944129775419</v>
+        <v>1179.5929393011263</v>
       </c>
       <c r="E33">
-        <v>222.65107489255604</v>
+        <v>336.4369181925324</v>
       </c>
       <c r="F33">
-        <v>661.25099024717201</v>
+        <v>1130.5970557745948</v>
       </c>
       <c r="G33">
-        <v>6.133435506560506E-8</v>
+        <v>4.2857991433537085E-8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>3522.694580078125</v>
+        <v>2952.9775390625</v>
       </c>
       <c r="B34">
-        <v>71.968669158295938</v>
+        <v>73.837822428702367</v>
       </c>
       <c r="C34">
-        <v>6.9141387939453125E-2</v>
+        <v>0.15330314636230469</v>
       </c>
       <c r="D34">
-        <v>764.88524489672795</v>
+        <v>1290.744108898208</v>
       </c>
       <c r="E34">
-        <v>236.76029239211746</v>
+        <v>359.28782643085822</v>
       </c>
       <c r="F34">
-        <v>727.31973835935901</v>
+        <v>1239.7308629029199</v>
       </c>
       <c r="G34">
-        <v>6.2118329292136346E-8</v>
+        <v>4.3474297698724957E-8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>3162.277587890625</v>
+        <v>2654.84912109375</v>
       </c>
       <c r="B35">
-        <v>72.635831592511693</v>
+        <v>74.137181158441877</v>
       </c>
       <c r="C35">
-        <v>4.5299530029296875E-2</v>
+        <v>0.13852119445800781</v>
       </c>
       <c r="D35">
-        <v>838.34820159006961</v>
+        <v>1416.0957435200708</v>
       </c>
       <c r="E35">
-        <v>250.19996695165125</v>
+        <v>387.06860761266597</v>
       </c>
       <c r="F35">
-        <v>800.14228962522441</v>
+        <v>1362.1692434556192</v>
       </c>
       <c r="G35">
-        <v>6.2900328988231288E-8</v>
+        <v>4.4009781970412251E-8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>2838.736083984375</v>
+        <v>2386.819091796875</v>
       </c>
       <c r="B36">
-        <v>72.919430861008479</v>
+        <v>74.350861745141316</v>
       </c>
       <c r="C36">
-        <v>3.5762786865234375E-2</v>
+        <v>0.12516975402832031</v>
       </c>
       <c r="D36">
-        <v>918.93713922252527</v>
+        <v>1549.1575163589052</v>
       </c>
       <c r="E36">
-        <v>269.90669503112559</v>
+        <v>417.8786611886145</v>
       </c>
       <c r="F36">
-        <v>878.40528335151407</v>
+        <v>1491.7326955639548</v>
       </c>
       <c r="G36">
-        <v>6.3826374210655055E-8</v>
+        <v>4.4700215818760267E-8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>2548.296630859375</v>
+        <v>2145.84912109375</v>
       </c>
       <c r="B37">
-        <v>73.410344242734283</v>
+        <v>74.599259357674356</v>
       </c>
       <c r="C37">
-        <v>4.0531158447265625E-2</v>
+        <v>0.15664100646972656</v>
       </c>
       <c r="D37">
-        <v>1009.4037216657987</v>
+        <v>1697.0458278799267</v>
       </c>
       <c r="E37">
-        <v>288.20025299001986</v>
+        <v>450.6820506808013</v>
       </c>
       <c r="F37">
-        <v>967.38642097625802</v>
+        <v>1636.1082577625521</v>
       </c>
       <c r="G37">
-        <v>6.4560987507732139E-8</v>
+        <v>4.5332420899905968E-8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>2287.5732421875</v>
+        <v>1929.2071533203125</v>
       </c>
       <c r="B38">
-        <v>73.818168172401585</v>
+        <v>74.72755589534674</v>
       </c>
       <c r="C38">
-        <v>3.5762786865234375E-2</v>
+        <v>0.15187263488769531</v>
       </c>
       <c r="D38">
-        <v>1108.5371012412247</v>
+        <v>1862.0231533238571</v>
       </c>
       <c r="E38">
-        <v>308.93442268430636</v>
+        <v>490.47388797869314</v>
       </c>
       <c r="F38">
-        <v>1064.619193565949</v>
+        <v>1796.2643426637362</v>
       </c>
       <c r="G38">
-        <v>6.5350788512100198E-8</v>
+        <v>4.592731105854768E-8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>2053.525146484375</v>
+        <v>1734.4371337890625</v>
       </c>
       <c r="B39">
-        <v>73.986572161219001</v>
+        <v>74.605997502145385</v>
       </c>
       <c r="C39">
-        <v>5.4836273193359375E-2</v>
+        <v>0.13661384582519531</v>
       </c>
       <c r="D39">
-        <v>1217.2889273759563</v>
+        <v>2036.009413980632</v>
       </c>
       <c r="E39">
-        <v>335.80452440926831</v>
+        <v>540.46928258227342</v>
       </c>
       <c r="F39">
-        <v>1170.054551761742</v>
+        <v>1962.9639039989399</v>
       </c>
       <c r="G39">
-        <v>6.6239034845563735E-8</v>
+        <v>4.6746516679582375E-8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>1843.4229736328125</v>
+        <v>1559.3306884765625</v>
       </c>
       <c r="B40">
-        <v>74.259398499372878</v>
+        <v>74.647794777987897</v>
       </c>
       <c r="C40">
-        <v>3.3617019653320313E-2</v>
+        <v>0.15759468078613281</v>
       </c>
       <c r="D40">
-        <v>1337.1553806720649</v>
+        <v>2237.7130444866284</v>
       </c>
       <c r="E40">
-        <v>362.74694829354411</v>
+        <v>592.43855575355997</v>
       </c>
       <c r="F40">
-        <v>1287.0117185029728</v>
+        <v>2157.8638110692373</v>
       </c>
       <c r="G40">
-        <v>6.7083024478540144E-8</v>
+        <v>4.7299644198859717E-8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>1654.817138671875</v>
+        <v>1401.90283203125</v>
       </c>
       <c r="B41">
-        <v>74.429690084513567</v>
+        <v>74.334304360972013</v>
       </c>
       <c r="C41">
-        <v>1.1920928955078125E-3</v>
+        <v>0.13566017150878906</v>
       </c>
       <c r="D41">
-        <v>1464.3593732150896</v>
+        <v>2449.0849535414359</v>
       </c>
       <c r="E41">
-        <v>393.06434396803644</v>
+        <v>661.31174197205087</v>
       </c>
       <c r="F41">
-        <v>1410.6200039074547</v>
+        <v>2358.1102369467267</v>
       </c>
       <c r="G41">
-        <v>6.8180484525735074E-8</v>
+        <v>4.8143550430782315E-8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1485.508056640625</v>
+        <v>1260.36865234375</v>
       </c>
       <c r="B42">
-        <v>74.505679346313983</v>
+        <v>74.594485776226463</v>
       </c>
       <c r="C42">
-        <v>1.4543533325195313E-2</v>
+        <v>0.14948844909667969</v>
       </c>
       <c r="D42">
-        <v>1613.4216742118817</v>
+        <v>2670.3878935721896</v>
       </c>
       <c r="E42">
-        <v>431.01407485611554</v>
+        <v>709.38561213586479</v>
       </c>
       <c r="F42">
-        <v>1554.7849903097849</v>
+        <v>2574.4404354017479</v>
       </c>
       <c r="G42">
-        <v>6.8908814868650259E-8</v>
+        <v>4.9050076680184004E-8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1333.521484375</v>
+        <v>1133.1236572265625</v>
       </c>
       <c r="B43">
-        <v>74.751520506316197</v>
+        <v>75.025800768966945</v>
       </c>
       <c r="C43">
-        <v>3.1232833862304688E-2</v>
+        <v>0.18286705017089844</v>
       </c>
       <c r="D43">
-        <v>1769.1828966655692</v>
+        <v>2923.0730117958133</v>
       </c>
       <c r="E43">
-        <v>465.30502869458701</v>
+        <v>755.27545607573336</v>
       </c>
       <c r="F43">
-        <v>1706.8975810298352</v>
+        <v>2823.8121073716356</v>
       </c>
       <c r="G43">
-        <v>6.9921808352629663E-8</v>
+        <v>4.9740142927524794E-8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1197.0850830078125</v>
+        <v>1018.7250366210938</v>
       </c>
       <c r="B44">
-        <v>74.887937039970822</v>
+        <v>74.480583416034079</v>
       </c>
       <c r="C44">
-        <v>1.4543533325195313E-2</v>
+        <v>0.16665458679199219</v>
       </c>
       <c r="D44">
-        <v>1952.0545100707341</v>
+        <v>3219.7252785690507</v>
       </c>
       <c r="E44">
-        <v>508.91578195093547</v>
+        <v>861.48553340723026</v>
       </c>
       <c r="F44">
-        <v>1884.5480989268385</v>
+        <v>3102.3335644618573</v>
       </c>
       <c r="G44">
-        <v>7.0548516573137363E-8</v>
+        <v>5.0358717398358417E-8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1074.6077880859375</v>
+        <v>915.8759765625</v>
       </c>
       <c r="B45">
-        <v>74.182554591756428</v>
+        <v>73.999099995161345</v>
       </c>
       <c r="C45">
-        <v>5.4121017456054688E-2</v>
+        <v>0.18620491027832031</v>
       </c>
       <c r="D45">
-        <v>2126.7445711088808</v>
+        <v>3512.5855357001992</v>
       </c>
       <c r="E45">
-        <v>579.69359538349374</v>
+        <v>968.25282746391201</v>
       </c>
       <c r="F45">
-        <v>2046.215483817004</v>
+        <v>3376.4987202305279</v>
       </c>
       <c r="G45">
-        <v>7.2380033742165429E-8</v>
+        <v>5.1465580365065169E-8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>964.66162109375</v>
+        <v>823.410400390625</v>
       </c>
       <c r="B46">
-        <v>74.521703019662993</v>
+        <v>73.722706659855035</v>
       </c>
       <c r="C46">
-        <v>1.3589859008789063E-2</v>
+        <v>0.19001960754394531</v>
       </c>
       <c r="D46">
-        <v>2331.322927228216</v>
+        <v>3871.9473320200605</v>
       </c>
       <c r="E46">
-        <v>622.1679458926111</v>
+        <v>1085.253831432208</v>
       </c>
       <c r="F46">
-        <v>2246.7696005874091</v>
+        <v>3716.7459239634577</v>
       </c>
       <c r="G46">
-        <v>7.3432208842108793E-8</v>
+        <v>5.2004498134373254E-8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>865.96429443359375</v>
+        <v>740.280029296875</v>
       </c>
       <c r="B47">
-        <v>75.008995037319238</v>
+        <v>73.534473563562656</v>
       </c>
       <c r="C47">
-        <v>-1.1920928955078125E-3</v>
+        <v>0.17809867858886719</v>
       </c>
       <c r="D47">
-        <v>2587.3617365235186</v>
+        <v>4220.5502170780783</v>
       </c>
       <c r="E47">
-        <v>669.26612885631459</v>
+        <v>1196.2659726527943</v>
       </c>
       <c r="F47">
-        <v>2499.3046241688271</v>
+        <v>4047.4673386638806</v>
       </c>
       <c r="G47">
-        <v>7.3536160986047084E-8</v>
+        <v>5.3117881445246804E-8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>777.36505126953125</v>
+        <v>665.5423583984375</v>
       </c>
       <c r="B48">
-        <v>74.423533046510173</v>
+        <v>73.221644323886551</v>
       </c>
       <c r="C48">
-        <v>1.5974044799804688E-2</v>
+        <v>0.18429756164550781</v>
       </c>
       <c r="D48">
-        <v>2816.3572284389475</v>
+        <v>4625.9512668659781</v>
       </c>
       <c r="E48">
-        <v>756.26006888136908</v>
+        <v>1335.3739757912535</v>
       </c>
       <c r="F48">
-        <v>2712.9207040375977</v>
+        <v>4429.0181155870669</v>
       </c>
       <c r="G48">
-        <v>7.546716228063999E-8</v>
+        <v>5.3992939693988258E-8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>697.83056640625</v>
+        <v>598.35009765625</v>
       </c>
       <c r="B49">
-        <v>74.294454273444998</v>
+        <v>72.710991973019247</v>
       </c>
       <c r="C49">
-        <v>1.5020370483398438E-2</v>
+        <v>0.18429756164550781</v>
       </c>
       <c r="D49">
-        <v>3092.2708402118119</v>
+        <v>5080.9750237117141</v>
       </c>
       <c r="E49">
-        <v>837.05800255629072</v>
+        <v>1510.0236123274824</v>
       </c>
       <c r="F49">
-        <v>2976.8226096932176</v>
+        <v>4851.4055573406467</v>
       </c>
       <c r="G49">
-        <v>7.6615596560760328E-8</v>
+        <v>5.4827340990916198E-8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>626.43353271484375</v>
+        <v>537.9415283203125</v>
       </c>
       <c r="B50">
-        <v>74.049969617384733</v>
+        <v>72.188342329067424</v>
       </c>
       <c r="C50">
-        <v>4.8875808715820313E-2</v>
+        <v>0.21004676818847656</v>
       </c>
       <c r="D50">
-        <v>3386.3595274242712</v>
+        <v>5528.9739223962006</v>
       </c>
       <c r="E50">
-        <v>930.56787907412968</v>
+        <v>1691.2524334947836</v>
       </c>
       <c r="F50">
-        <v>3255.9905207805209</v>
+        <v>5263.9545819407676</v>
       </c>
       <c r="G50">
-        <v>7.8030071079393732E-8</v>
+        <v>5.6204737740793203E-8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>562.34130859375</v>
+        <v>483.63168334960938</v>
       </c>
       <c r="B51">
-        <v>73.439013689856836</v>
+        <v>71.740146161156758</v>
       </c>
       <c r="C51">
-        <v>3.8385391235351563E-2</v>
+        <v>0.21052360534667969</v>
       </c>
       <c r="D51">
-        <v>3745.4190492637795</v>
+        <v>6040.2592130109151</v>
       </c>
       <c r="E51">
-        <v>1067.5783755865407</v>
+        <v>1892.5771014387781</v>
       </c>
       <c r="F51">
-        <v>3590.0473905741128</v>
+        <v>5736.1034923955849</v>
       </c>
       <c r="G51">
-        <v>7.8835161731364079E-8</v>
+        <v>5.7370470148699163E-8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>504.80657958984375</v>
+        <v>434.80490112304688</v>
       </c>
       <c r="B52">
-        <v>73.202048142405474</v>
+        <v>71.197081291450132</v>
       </c>
       <c r="C52">
-        <v>5.8412551879882813E-2</v>
+        <v>0.21052360534667969</v>
       </c>
       <c r="D52">
-        <v>4083.6780507144977</v>
+        <v>6598.1145343177859</v>
       </c>
       <c r="E52">
-        <v>1180.1730562849793</v>
+        <v>2126.6641479086738</v>
       </c>
       <c r="F52">
-        <v>3909.4268095344014</v>
+        <v>6245.9919156188062</v>
       </c>
       <c r="G52">
-        <v>8.0645852645295824E-8</v>
+        <v>5.8603598333635105E-8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>453.15835571289063</v>
+        <v>390.9075927734375</v>
       </c>
       <c r="B53">
-        <v>72.856468785660837</v>
+        <v>70.592018304348059</v>
       </c>
       <c r="C53">
-        <v>5.7935714721679688E-2</v>
+        <v>0.21004676818847656</v>
       </c>
       <c r="D53">
-        <v>4477.9614142238197</v>
+        <v>7198.8294583853694</v>
       </c>
       <c r="E53">
-        <v>1319.9526392140051</v>
+        <v>2392.11722536975</v>
       </c>
       <c r="F53">
-        <v>4279.0026241531305</v>
+        <v>6789.7658833722917</v>
       </c>
       <c r="G53">
-        <v>8.2078155184691413E-8</v>
+        <v>5.9964087044642691E-8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>406.79443359375</v>
+        <v>351.44210815429688</v>
       </c>
       <c r="B54">
-        <v>72.461399708847651</v>
+        <v>69.887061617298855</v>
       </c>
       <c r="C54">
-        <v>5.7935714721679688E-2</v>
+        <v>0.21052360534667969</v>
       </c>
       <c r="D54">
-        <v>4909.5009027094475</v>
+        <v>7850.7038012652274</v>
       </c>
       <c r="E54">
-        <v>1479.4695171695366</v>
+        <v>2699.6352519156044</v>
       </c>
       <c r="F54">
-        <v>4681.2785712314771</v>
+        <v>7371.9413780777495</v>
       </c>
       <c r="G54">
-        <v>8.3575819621306673E-8</v>
+        <v>6.1430558420008501E-8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>365.17413330078125</v>
+        <v>315.96099853515625</v>
       </c>
       <c r="B55">
-        <v>72.021865518602866</v>
+        <v>69.149457891064287</v>
       </c>
       <c r="C55">
-        <v>6.0319900512695313E-2</v>
+        <v>0.17952919006347656</v>
       </c>
       <c r="D55">
-        <v>5371.973615214275</v>
+        <v>8551.3766010153195</v>
       </c>
       <c r="E55">
-        <v>1658.0812767057294</v>
+        <v>3043.7039446806652</v>
       </c>
       <c r="F55">
-        <v>5109.6836499333522</v>
+        <v>7991.3645937053625</v>
       </c>
       <c r="G55">
-        <v>8.5295498448903511E-8</v>
+        <v>6.3032670733729201E-8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>327.81210327148438</v>
+        <v>284.06201171875</v>
       </c>
       <c r="B56">
-        <v>71.484030177202811</v>
+        <v>68.408911441159674</v>
       </c>
       <c r="C56">
-        <v>6.0319900512695313E-2</v>
+        <v>0.17857551574707031</v>
       </c>
       <c r="D56">
-        <v>5880.9614813413036</v>
+        <v>9305.8286158920328</v>
       </c>
       <c r="E56">
-        <v>1867.6108598013143</v>
+        <v>3424.3582221005904</v>
       </c>
       <c r="F56">
-        <v>5576.5345530510522</v>
+        <v>8652.873337515528</v>
       </c>
       <c r="G56">
-        <v>8.7062423039586391E-8</v>
+        <v>6.4751021892202321E-8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>294.272705078125</v>
+        <v>255.38351440429688</v>
       </c>
       <c r="B57">
-        <v>70.95918478459518</v>
+        <v>67.557380464874839</v>
       </c>
       <c r="C57">
-        <v>3.5047531127929688E-2</v>
+        <v>0.18095970153808594</v>
       </c>
       <c r="D57">
-        <v>6431.2503605338061</v>
+        <v>10119.166790298097</v>
       </c>
       <c r="E57">
-        <v>2098.1415446476949</v>
+        <v>3863.0728305011958</v>
       </c>
       <c r="F57">
-        <v>6079.3735909622783</v>
+        <v>9352.7645557939377</v>
       </c>
       <c r="G57">
-        <v>8.8963388771436982E-8</v>
+        <v>6.6632678419540642E-8</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>264.16482543945313</v>
+        <v>229.600341796875</v>
       </c>
       <c r="B58">
-        <v>70.3475629483289</v>
+        <v>66.620438790682201</v>
       </c>
       <c r="C58">
-        <v>3.6478042602539063E-2</v>
+        <v>0.18382072448730469</v>
       </c>
       <c r="D58">
-        <v>7026.5688026761045</v>
+        <v>11005.721131552205</v>
       </c>
       <c r="E58">
-        <v>2363.1306452720241</v>
+        <v>4367.2955432139561</v>
       </c>
       <c r="F58">
-        <v>6617.2715443842353</v>
+        <v>10102.11004017073</v>
       </c>
       <c r="G58">
-        <v>9.1047114370170045E-8</v>
+        <v>6.8617597252522035E-8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>237.13737487792969</v>
+        <v>206.42021179199219</v>
       </c>
       <c r="B59">
-        <v>69.690279311707314</v>
+        <v>65.694027885007799</v>
       </c>
       <c r="C59">
-        <v>3.9815902709960938E-2</v>
+        <v>0.18668174743652344</v>
       </c>
       <c r="D59">
-        <v>7673.0260012651443</v>
+        <v>11934.727150639334</v>
       </c>
       <c r="E59">
-        <v>2663.2671717529815</v>
+        <v>4912.4453413645033</v>
       </c>
       <c r="F59">
-        <v>7195.9944405171582</v>
+        <v>10876.837450670753</v>
       </c>
       <c r="G59">
-        <v>9.3267278539031148E-8</v>
+        <v>7.0886784066042804E-8</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>212.87516784667969</v>
+        <v>185.58030700683594</v>
       </c>
       <c r="B60">
-        <v>69.027865035746842</v>
+        <v>64.649052479040876</v>
       </c>
       <c r="C60">
-        <v>4.4107437133789063E-2</v>
+        <v>0.18498945236206055</v>
       </c>
       <c r="D60">
-        <v>8375.9259274439428</v>
+        <v>12937.72677755688</v>
       </c>
       <c r="E60">
-        <v>2997.8600872531438</v>
+        <v>5539.4378793200276</v>
       </c>
       <c r="F60">
-        <v>7821.0593936679852</v>
+        <v>11691.851955608519</v>
       </c>
       <c r="G60">
-        <v>9.5593760040037956E-8</v>
+        <v>7.335081357249905E-8</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>191.09529113769531</v>
+        <v>166.84437561035156</v>
       </c>
       <c r="B61">
-        <v>68.260542457885506</v>
+        <v>63.536715389496628</v>
       </c>
       <c r="C61">
-        <v>4.7445297241210938E-2</v>
+        <v>0.18484640121459961</v>
       </c>
       <c r="D61">
-        <v>9139.6371302081516</v>
+        <v>14002.256492365008</v>
       </c>
       <c r="E61">
-        <v>3385.1984795733106</v>
+        <v>6239.7449585492241</v>
       </c>
       <c r="F61">
-        <v>8489.6052985856804</v>
+        <v>12535.101504584538</v>
       </c>
       <c r="G61">
-        <v>9.8103080955555934E-8</v>
+        <v>7.6099307648780823E-8</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>171.54379272460938</v>
+        <v>150</v>
       </c>
       <c r="B62">
-        <v>67.434231170878377</v>
+        <v>62.35162477549239</v>
       </c>
       <c r="C62">
-        <v>4.9829483032226563E-2</v>
+        <v>0.18475103378295898</v>
       </c>
       <c r="D62">
-        <v>9950.3906385110786</v>
+        <v>15119.056837866272</v>
       </c>
       <c r="E62">
-        <v>3818.3995734583709</v>
+        <v>7015.9090889393301</v>
       </c>
       <c r="F62">
-        <v>9188.5852314913991</v>
+        <v>13392.643477759326</v>
       </c>
       <c r="G62">
-        <v>1.0097095774211257E-7</v>
+        <v>7.9225057824318824E-8</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>153.99264526367188</v>
+        <v>80000</v>
       </c>
       <c r="B63">
-        <v>66.514314215470293</v>
+        <v>33.649966488140791</v>
       </c>
       <c r="C63">
-        <v>4.9829483032226563E-2</v>
+        <v>-0.13589859008789063</v>
       </c>
       <c r="D63">
-        <v>10828.716336610167</v>
+        <v>127.94852111775951</v>
       </c>
       <c r="E63">
-        <v>4315.4594626144235</v>
+        <v>106.50925228414964</v>
       </c>
       <c r="F63">
-        <v>9931.6618511354645</v>
+        <v>70.898541833334747</v>
       </c>
       <c r="G63">
-        <v>1.0406345191302882E-7</v>
+        <v>2.8060334348277212E-8</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>138.23722839355469</v>
+        <v>71923.3125</v>
       </c>
       <c r="B64">
-        <v>65.552556874436817</v>
+        <v>35.529200561306808</v>
       </c>
       <c r="C64">
-        <v>4.8875808715820313E-2</v>
+        <v>-8.3446502685546875E-2</v>
       </c>
       <c r="D64">
-        <v>11756.876638830632</v>
+        <v>132.97646791544099</v>
       </c>
       <c r="E64">
-        <v>4865.6817958653537</v>
+        <v>108.21883727676733</v>
       </c>
       <c r="F64">
-        <v>10702.770153659563</v>
+        <v>77.274991282632058</v>
       </c>
       <c r="G64">
-        <v>1.0757191870731963E-7</v>
+        <v>2.8635942773578102E-8</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>124.09377288818359</v>
+        <v>64662.03125</v>
       </c>
       <c r="B65">
-        <v>64.61581369443833</v>
+        <v>37.416459421438695</v>
       </c>
       <c r="C65">
-        <v>3.7455558776855469E-2</v>
+        <v>2.384185791015625E-3</v>
       </c>
       <c r="D65">
-        <v>12783.621348622983</v>
+        <v>138.63294766006035</v>
       </c>
       <c r="E65">
-        <v>5480.1568883973987</v>
+        <v>110.1078470771413</v>
       </c>
       <c r="F65">
-        <v>11549.409303662236</v>
+        <v>84.233937275624825</v>
       </c>
       <c r="G65">
-        <v>1.1104790509708966E-7</v>
+        <v>2.9220233864206283E-8</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>111.39738464355469</v>
+        <v>58133.84375</v>
       </c>
       <c r="B66">
-        <v>63.584180551501618</v>
+        <v>39.323889023751114</v>
       </c>
       <c r="C66">
-        <v>4.1222572326660156E-2</v>
+        <v>-0.12636184692382813</v>
       </c>
       <c r="D66">
-        <v>13862.946291637067</v>
+        <v>144.72844900574842</v>
       </c>
       <c r="E66">
-        <v>6167.3817816112751</v>
+        <v>111.95846325165067</v>
       </c>
       <c r="F66">
-        <v>12415.501675110161</v>
+        <v>91.714919494803596</v>
       </c>
       <c r="G66">
-        <v>1.1507496833931758E-7</v>
+        <v>2.9850465181685416E-8</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>100</v>
+        <v>52264.73046875</v>
       </c>
       <c r="B67">
-        <v>62.479101465315267</v>
+        <v>41.275958280276498</v>
       </c>
       <c r="C67">
-        <v>4.5466423034667969E-2</v>
+        <v>-0.10251998901367188</v>
       </c>
       <c r="D67">
-        <v>14993.742764050392</v>
+        <v>151.71119645326263</v>
       </c>
       <c r="E67">
-        <v>6928.1904780035484</v>
+        <v>114.01718562690444</v>
       </c>
       <c r="F67">
-        <v>13297.086100910021</v>
+        <v>100.08180909136517</v>
       </c>
       <c r="G67">
-        <v>1.1969159399592301E-7</v>
+        <v>3.0426799274353466E-8</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>100000</v>
+        <v>46988.15625</v>
       </c>
       <c r="B68">
-        <v>27.597978387360165</v>
+        <v>43.21417639367445</v>
       </c>
       <c r="C68">
-        <v>0.2384185791015625</v>
+        <v>-5.9604644775390625E-2</v>
       </c>
       <c r="D68">
-        <v>99.236098538498538</v>
+        <v>159.65470697278704</v>
       </c>
       <c r="E68">
-        <v>87.945007855953335</v>
+        <v>116.3562277018123</v>
       </c>
       <c r="F68">
-        <v>45.97258798848393</v>
+        <v>109.31996036209721</v>
       </c>
       <c r="G68">
-        <v>3.4619530910847011E-8</v>
+        <v>3.0983627438090117E-8</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>89768.7109375</v>
+        <v>42244.296875</v>
       </c>
       <c r="B69">
-        <v>28.870649180625836</v>
+        <v>45.153689408644318</v>
       </c>
       <c r="C69">
-        <v>-2.384185791015625E-2</v>
+        <v>-0.11205673217773438</v>
       </c>
       <c r="D69">
-        <v>100.45845345040098</v>
+        <v>168.28003674358828</v>
       </c>
       <c r="E69">
-        <v>87.972671422971061</v>
+        <v>118.67234503845486</v>
       </c>
       <c r="F69">
-        <v>48.504741545052589</v>
+        <v>119.31070903107289</v>
       </c>
       <c r="G69">
-        <v>3.6551983414955339E-8</v>
+        <v>3.1577127380466093E-8</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>80584.21875</v>
+        <v>37979.37109375</v>
       </c>
       <c r="B70">
-        <v>30.590037016440569</v>
+        <v>47.083408664534545</v>
       </c>
       <c r="C70">
-        <v>-7.152557373046875E-2</v>
+        <v>-1.1920928955078125E-2</v>
       </c>
       <c r="D70">
-        <v>103.83820650362959</v>
+        <v>178.02185268320551</v>
       </c>
       <c r="E70">
-        <v>89.387098297980572</v>
+        <v>121.22094804938862</v>
       </c>
       <c r="F70">
-        <v>52.842405204131119</v>
+        <v>130.3735471127803</v>
       </c>
       <c r="G70">
-        <v>3.7375546778039061E-8</v>
+        <v>3.2142738943800547E-8</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>72339.4140625</v>
+        <v>34145.02734375</v>
       </c>
       <c r="B71">
-        <v>32.363664922534795</v>
+        <v>48.942006993628915</v>
       </c>
       <c r="C71">
-        <v>2.384185791015625E-2</v>
+        <v>2.1457672119140625E-2</v>
       </c>
       <c r="D71">
-        <v>107.67813985539946</v>
+        <v>188.6632196151343</v>
       </c>
       <c r="E71">
-        <v>90.952231573885683</v>
+        <v>123.91826386000888</v>
       </c>
       <c r="F71">
-        <v>57.639165282377554</v>
+        <v>142.26058595925159</v>
       </c>
       <c r="G71">
-        <v>3.8170466005901887E-8</v>
+        <v>3.2764841667099421E-8</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>64938.1640625</v>
+        <v>30697.791015625</v>
       </c>
       <c r="B72">
-        <v>34.137042585001076</v>
+        <v>50.811878083950525</v>
       </c>
       <c r="C72">
-        <v>0.11920928955078125</v>
+        <v>-5.4836273193359375E-2</v>
       </c>
       <c r="D72">
-        <v>111.92717220975511</v>
+        <v>200.8403559883173</v>
       </c>
       <c r="E72">
-        <v>92.641863008979414</v>
+        <v>126.90472139950074</v>
       </c>
       <c r="F72">
-        <v>62.810644775369632</v>
+        <v>155.66643915767173</v>
       </c>
       <c r="G72">
-        <v>3.9019964861378069E-8</v>
+        <v>3.330565778317788E-8</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>58294.15234375</v>
+        <v>27598.583984375</v>
       </c>
       <c r="B73">
-        <v>35.887488646294351</v>
+        <v>52.574188828021363</v>
       </c>
       <c r="C73">
-        <v>-7.152557373046875E-2</v>
+        <v>-0.13589859008789063</v>
       </c>
       <c r="D73">
-        <v>116.44179678083432</v>
+        <v>214.12491326043502</v>
       </c>
       <c r="E73">
-        <v>94.337611365427918</v>
+        <v>130.13091592058097</v>
       </c>
       <c r="F73">
-        <v>68.257652460472173</v>
+        <v>170.04535630372123</v>
       </c>
       <c r="G73">
-        <v>3.9998508036794438E-8</v>
+        <v>3.3913183134355112E-8</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>52329.91015625</v>
+        <v>24812.26953125</v>
       </c>
       <c r="B74">
-        <v>37.709978819562259</v>
+        <v>54.358266220998061</v>
       </c>
       <c r="C74">
-        <v>-0.25987625122070313</v>
+        <v>-6.4373016357421875E-2</v>
       </c>
       <c r="D74">
-        <v>121.5057113127092</v>
+        <v>228.99333530714878</v>
       </c>
       <c r="E74">
-        <v>96.12523569105069</v>
+        <v>133.43786779106298</v>
       </c>
       <c r="F74">
-        <v>74.320770615941413</v>
+        <v>186.09750953322043</v>
       </c>
       <c r="G74">
-        <v>4.0922290913670433E-8</v>
+        <v>3.4467761587015281E-8</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>46975.88671875</v>
+        <v>22307.2578125</v>
       </c>
       <c r="B75">
-        <v>39.52722206565813</v>
+        <v>56.062628053419488</v>
       </c>
       <c r="C75">
-        <v>-0.23126602172851563</v>
+        <v>-9.7751617431640625E-2</v>
       </c>
       <c r="D75">
-        <v>127.24667306683541</v>
+        <v>245.85224817698165</v>
       </c>
       <c r="E75">
-        <v>98.148194782693466</v>
+        <v>137.25596091861559</v>
       </c>
       <c r="F75">
-        <v>80.985478127109687</v>
+        <v>203.97090264541077</v>
       </c>
       <c r="G75">
-        <v>4.1834828647157248E-8</v>
+        <v>3.4978866121598623E-8</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>42169.6484375</v>
+        <v>20055.1484375</v>
       </c>
       <c r="B76">
-        <v>41.388294082155355</v>
+        <v>57.671440509180719</v>
       </c>
       <c r="C76">
-        <v>-0.27418136596679688</v>
+        <v>-7.3909759521484375E-2</v>
       </c>
       <c r="D76">
-        <v>133.58928603750391</v>
+        <v>264.20011264379349</v>
       </c>
       <c r="E76">
-        <v>100.22484946669601</v>
+        <v>141.28724794602309</v>
       </c>
       <c r="F76">
-        <v>88.323705161118326</v>
+        <v>223.24787364907235</v>
       </c>
       <c r="G76">
-        <v>4.2730981851199083E-8</v>
+        <v>3.5547324586604447E-8</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>37855.15234375</v>
+        <v>18030.408203125</v>
       </c>
       <c r="B77">
-        <v>43.222697035221024</v>
+        <v>59.237212254923101</v>
       </c>
       <c r="C77">
-        <v>-0.18835067749023438</v>
+        <v>-2.1457672119140625E-2</v>
       </c>
       <c r="D77">
-        <v>140.55948290350977</v>
+        <v>284.72964753096198</v>
       </c>
       <c r="E77">
-        <v>102.42532905030664</v>
+        <v>145.63491038529597</v>
       </c>
       <c r="F77">
-        <v>96.260169348689942</v>
+        <v>244.66598672511194</v>
       </c>
       <c r="G77">
-        <v>4.3676568678153347E-8</v>
+        <v>3.6077877053707194E-8</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>33982.08203125</v>
+        <v>16210.08203125</v>
       </c>
       <c r="B78">
-        <v>44.908504766285375</v>
+        <v>60.708268168436248</v>
       </c>
       <c r="C78">
-        <v>-8.8214874267578125E-2</v>
+        <v>-7.152557373046875E-3</v>
       </c>
       <c r="D78">
-        <v>148.66250903489961</v>
+        <v>307.45375250897695</v>
       </c>
       <c r="E78">
-        <v>105.28799997231955</v>
+        <v>150.42377796658354</v>
       </c>
       <c r="F78">
-        <v>104.95226845752522</v>
+        <v>268.14268021728884</v>
       </c>
       <c r="G78">
-        <v>4.4625009110174439E-8</v>
+        <v>3.6615837579932158E-8</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>30505.279296875</v>
+        <v>14573.53515625</v>
       </c>
       <c r="B79">
-        <v>46.660619306849263</v>
+        <v>62.169096506388854</v>
       </c>
       <c r="C79">
-        <v>-0.20742416381835938</v>
+        <v>2.384185791015625E-3</v>
       </c>
       <c r="D79">
-        <v>157.7452260743255</v>
+        <v>332.65658466508239</v>
       </c>
       <c r="E79">
-        <v>108.26345206166846</v>
+        <v>155.30527958666605</v>
       </c>
       <c r="F79">
-        <v>114.72829335839907</v>
+        <v>294.17796221597672</v>
       </c>
       <c r="G79">
-        <v>4.5475197380169114E-8</v>
+        <v>3.7123172501355132E-8</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>27384.197265625</v>
+        <v>13102.2109375</v>
       </c>
       <c r="B80">
-        <v>48.475411538352006</v>
+        <v>63.44289528650679</v>
       </c>
       <c r="C80">
-        <v>-0.28848648071289063</v>
+        <v>-2.384185791015625E-3</v>
       </c>
       <c r="D80">
-        <v>167.33088756377612</v>
+        <v>360.23856174393302</v>
       </c>
       <c r="E80">
-        <v>110.93057307343487</v>
+        <v>161.05889334482097</v>
       </c>
       <c r="F80">
-        <v>125.27583123045086</v>
+        <v>322.22950554205778</v>
       </c>
       <c r="G80">
-        <v>4.6393039193696913E-8</v>
+        <v>3.7697299475711646E-8</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>24582.44140625</v>
+        <v>11779.4296875</v>
       </c>
       <c r="B81">
-        <v>50.397792894738707</v>
+        <v>64.669351337164784</v>
       </c>
       <c r="C81">
-        <v>-0.22649765014648438</v>
+        <v>-2.384185791015625E-3</v>
       </c>
       <c r="D81">
-        <v>177.54622259026519</v>
+        <v>391.2854825045813</v>
       </c>
       <c r="E81">
-        <v>113.17749125793107</v>
+        <v>167.40813416328365</v>
       </c>
       <c r="F81">
-        <v>136.79735607325503</v>
+        <v>353.66487729885057</v>
       </c>
       <c r="G81">
-        <v>4.7327919677863563E-8</v>
+        <v>3.8203568889323142E-8</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>22067.33984375</v>
+        <v>10590.1953125</v>
       </c>
       <c r="B82">
-        <v>52.147062803342273</v>
+        <v>65.859249138077857</v>
       </c>
       <c r="C82">
-        <v>-0.26941299438476563</v>
+        <v>-4.5299530029296875E-2</v>
       </c>
       <c r="D82">
-        <v>189.4329265161536</v>
+        <v>425.23478562361731</v>
       </c>
       <c r="E82">
-        <v>116.24302215152954</v>
+        <v>173.9123517770667</v>
       </c>
       <c r="F82">
-        <v>149.57404002551198</v>
+        <v>388.04525097433367</v>
       </c>
       <c r="G82">
-        <v>4.8218525321708904E-8</v>
+        <v>3.8728777562336499E-8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>19809.568359375</v>
+        <v>9521.0234375</v>
       </c>
       <c r="B83">
-        <v>53.81483182340321</v>
+        <v>67.160890655464158</v>
       </c>
       <c r="C83">
-        <v>-0.24080276489257813</v>
+        <v>0.19788742065429688</v>
       </c>
       <c r="D83">
-        <v>202.77746222149824</v>
+        <v>458.75662965041613</v>
       </c>
       <c r="E83">
-        <v>119.71915562928625</v>
+        <v>178.06397630505148</v>
       </c>
       <c r="F83">
-        <v>163.66436069102485</v>
+        <v>422.7893867999091</v>
       </c>
       <c r="G83">
-        <v>4.9089770380881511E-8</v>
+        <v>3.9537792754688343E-8</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>17782.794921875</v>
+        <v>8559.7939453125</v>
       </c>
       <c r="B84">
-        <v>55.428906292099818</v>
+        <v>68.086959429749825</v>
       </c>
       <c r="C84">
-        <v>-0.17404556274414063</v>
+        <v>0.21219253540039063</v>
       </c>
       <c r="D84">
-        <v>217.57833487949816</v>
+        <v>500.45405458955292</v>
       </c>
       <c r="E84">
-        <v>123.46012475955273</v>
+        <v>186.76892732961394</v>
       </c>
       <c r="F84">
-        <v>179.15895010657638</v>
+        <v>464.29691851149363</v>
       </c>
       <c r="G84">
-        <v>4.9955303612338369E-8</v>
+        <v>4.004617307814254E-8</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>15963.3857421875</v>
+        <v>7695.609375</v>
       </c>
       <c r="B85">
-        <v>57.038441719469382</v>
+        <v>68.982369585040985</v>
       </c>
       <c r="C85">
-        <v>-0.16927719116210938</v>
+        <v>0.19788742065429688</v>
       </c>
       <c r="D85">
-        <v>233.89533750753395</v>
+        <v>546.01640550668367</v>
       </c>
       <c r="E85">
-        <v>127.25689096423088</v>
+        <v>195.83162501918954</v>
       </c>
       <c r="F85">
-        <v>196.24656075936994</v>
+        <v>509.68999374598548</v>
       </c>
       <c r="G85">
-        <v>5.0803434018081243E-8</v>
+        <v>4.0576166039453086E-8</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>14330.1259765625</v>
+        <v>6918.6708984375</v>
       </c>
       <c r="B86">
-        <v>58.662998279066933</v>
+        <v>69.799674727300697</v>
       </c>
       <c r="C86">
-        <v>-0.16450881958007813</v>
+        <v>0.19311904907226563</v>
       </c>
       <c r="D86">
-        <v>251.6724484595029</v>
+        <v>597.46268673654049</v>
       </c>
       <c r="E86">
-        <v>130.88749528445263</v>
+        <v>206.30597291681795</v>
       </c>
       <c r="F86">
-        <v>214.95926333090077</v>
+        <v>560.71339165503321</v>
       </c>
       <c r="G86">
-        <v>5.1667084811834509E-8</v>
+        <v>4.1025750084851895E-8</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>12863.9697265625</v>
+        <v>6220.171875</v>
       </c>
       <c r="B87">
-        <v>60.194858381209656</v>
+        <v>70.485741175547773</v>
       </c>
       <c r="C87">
-        <v>-0.14543533325195313</v>
+        <v>0.22172927856445313</v>
       </c>
       <c r="D87">
-        <v>271.56163268411581</v>
+        <v>652.77207435857667</v>
       </c>
       <c r="E87">
-        <v>134.98020667788001</v>
+        <v>218.05292233524517</v>
       </c>
       <c r="F87">
-        <v>235.63969137490278</v>
+        <v>615.27579517112383</v>
       </c>
       <c r="G87">
-        <v>5.250451813166356E-8</v>
+        <v>4.1586073427147379E-8</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>11547.8203125</v>
+        <v>5592.19189453125</v>
       </c>
       <c r="B88">
-        <v>61.484015966619104</v>
+        <v>71.224913379737089</v>
       </c>
       <c r="C88">
-        <v>-0.17881393432617188</v>
+        <v>0.21696090698242188</v>
       </c>
       <c r="D88">
-        <v>293.92970273965273</v>
+        <v>713.47064617733452</v>
       </c>
       <c r="E88">
-        <v>140.32318900704041</v>
+        <v>229.63341151293679</v>
       </c>
       <c r="F88">
-        <v>258.27131621516747</v>
+        <v>675.50637248928558</v>
       </c>
       <c r="G88">
-        <v>5.3363454783415021E-8</v>
+        <v>4.2131664345886091E-8</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>10366.3291015625</v>
+        <v>5027.61181640625</v>
       </c>
       <c r="B89">
-        <v>62.847708448671789</v>
+        <v>71.791507086531198</v>
       </c>
       <c r="C89">
-        <v>-0.18835067749023438</v>
+        <v>0.19788742065429688</v>
       </c>
       <c r="D89">
-        <v>318.58777922054236</v>
+        <v>781.87349140016215</v>
       </c>
       <c r="E89">
-        <v>145.38982012092598</v>
+        <v>244.31648903558516</v>
       </c>
       <c r="F89">
-        <v>283.47834709882488</v>
+        <v>742.72175795489136</v>
       </c>
       <c r="G89">
-        <v>5.4159574972389621E-8</v>
+        <v>4.2621845124229005E-8</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>9305.720703125</v>
+        <v>4520.03125</v>
       </c>
       <c r="B90">
-        <v>64.333299201084984</v>
+        <v>72.320936685613418</v>
       </c>
       <c r="C90">
-        <v>5.0067901611328125E-2</v>
+        <v>0.20265579223632813</v>
       </c>
       <c r="D90">
-        <v>342.06239290974361</v>
+        <v>855.87489218729775</v>
       </c>
       <c r="E90">
-        <v>148.15930497302747</v>
+        <v>259.91630218531748</v>
       </c>
       <c r="F90">
-        <v>308.31072150194393</v>
+        <v>815.4540740807721</v>
       </c>
       <c r="G90">
-        <v>5.5472979184495555E-8</v>
+        <v>4.3179656924485319E-8</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>8353.625</v>
+        <v>4063.695068359375</v>
       </c>
       <c r="B91">
-        <v>65.481254374384378</v>
+        <v>72.869659615712663</v>
       </c>
       <c r="C91">
-        <v>4.5299530029296875E-2</v>
+        <v>0.22172927856445313</v>
       </c>
       <c r="D91">
-        <v>372.8239802918248</v>
+        <v>937.90291688420064</v>
       </c>
       <c r="E91">
-        <v>154.7185722136573</v>
+        <v>276.25594106896125</v>
       </c>
       <c r="F91">
-        <v>339.20478135310276</v>
+        <v>896.29489372861792</v>
       </c>
       <c r="G91">
-        <v>5.6167253850145509E-8</v>
+        <v>4.3696645414933826E-8</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>7498.94189453125</v>
+        <v>3653.429931640625</v>
       </c>
       <c r="B92">
-        <v>66.456622873490076</v>
+        <v>73.144332516300608</v>
       </c>
       <c r="C92">
-        <v>5.9604644775390625E-2</v>
+        <v>0.21696090698242188</v>
       </c>
       <c r="D92">
-        <v>405.90790029567279</v>
+        <v>1028.7791819371239</v>
       </c>
       <c r="E92">
-        <v>162.1371654671631</v>
+        <v>298.30663633642553</v>
       </c>
       <c r="F92">
-        <v>372.11928611228365</v>
+        <v>984.58100525292753</v>
       </c>
       <c r="G92">
-        <v>5.7034542738003482E-8</v>
+        <v>4.4245376610367446E-8</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>6731.70361328125</v>
+        <v>3284.584716796875</v>
       </c>
       <c r="B93">
-        <v>67.512703294703073</v>
+        <v>73.438303066034138</v>
       </c>
       <c r="C93">
-        <v>5.0067901611328125E-2</v>
+        <v>0.20265579223632813</v>
       </c>
       <c r="D93">
-        <v>443.54817957507112</v>
+        <v>1125.3032663129911</v>
       </c>
       <c r="E93">
-        <v>169.64768038710758</v>
+        <v>320.76505268706973</v>
       </c>
       <c r="F93">
-        <v>409.82270818444567</v>
+        <v>1078.6182003606966</v>
       </c>
       <c r="G93">
-        <v>5.7689812355415371E-8</v>
+        <v>4.4923327749305674E-8</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>6042.9638671875</v>
+        <v>2952.9775390625</v>
       </c>
       <c r="B94">
-        <v>68.446289223377775</v>
+        <v>73.73050740561564</v>
       </c>
       <c r="C94">
-        <v>5.9604644775390625E-2</v>
+        <v>0.20265579223632813</v>
       </c>
       <c r="D94">
-        <v>484.03097772361195</v>
+        <v>1235.1282696219128</v>
       </c>
       <c r="E94">
-        <v>177.82004152085204</v>
+        <v>346.02812164136139</v>
       </c>
       <c r="F94">
-        <v>450.18442912832757</v>
+        <v>1185.667061806379</v>
       </c>
       <c r="G94">
-        <v>5.8503205766750285E-8</v>
+        <v>4.5456629720342241E-8</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>5424.69091796875</v>
+        <v>2654.84912109375</v>
       </c>
       <c r="B95">
-        <v>69.369854416873196</v>
+        <v>74.037203961602614</v>
       </c>
       <c r="C95">
-        <v>3.5762786865234375E-2</v>
+        <v>0.17762184143066406</v>
       </c>
       <c r="D95">
-        <v>529.62571325193449</v>
+        <v>1353.2967817848298</v>
       </c>
       <c r="E95">
-        <v>186.6051978228227</v>
+        <v>372.17437042503315</v>
       </c>
       <c r="F95">
-        <v>495.66308747285746</v>
+        <v>1301.1142984334265</v>
       </c>
       <c r="G95">
-        <v>5.9191392277548056E-8</v>
+        <v>4.6074946285244112E-8</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>4869.67529296875</v>
+        <v>2386.819091796875</v>
       </c>
       <c r="B96">
-        <v>70.07869483667568</v>
+        <v>74.119747416660971</v>
       </c>
       <c r="C96">
-        <v>3.5762786865234375E-2</v>
+        <v>0.15473365783691406</v>
       </c>
       <c r="D96">
-        <v>579.523340285892</v>
+        <v>1483.6247405564307</v>
       </c>
       <c r="E96">
-        <v>197.46050577185318</v>
+        <v>405.96087160701461</v>
       </c>
       <c r="F96">
-        <v>544.84552911485082</v>
+        <v>1427.0032030500874</v>
       </c>
       <c r="G96">
-        <v>5.9985562601935935E-8</v>
+        <v>4.6727837255785968E-8</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>4371.44482421875</v>
+        <v>2145.84912109375</v>
       </c>
       <c r="B97">
-        <v>70.724994157694809</v>
+        <v>74.387356536576334</v>
       </c>
       <c r="C97">
-        <v>6.4373016357421875E-2</v>
+        <v>0.16474723815917969</v>
       </c>
       <c r="D97">
-        <v>633.64983480972251</v>
+        <v>1623.0650863156425</v>
       </c>
       <c r="E97">
-        <v>209.16948752833798</v>
+        <v>436.81932934375533</v>
       </c>
       <c r="F97">
-        <v>598.13062005010329</v>
+        <v>1563.1791797258804</v>
       </c>
       <c r="G97">
-        <v>6.0869410350195772E-8</v>
+        <v>4.7447374645630907E-8</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>3924.189697265625</v>
+        <v>1929.2071533203125</v>
       </c>
       <c r="B98">
-        <v>71.374173895385596</v>
+        <v>74.537275437841572</v>
       </c>
       <c r="C98">
-        <v>6.9141387939453125E-2</v>
+        <v>0.16379356384277344</v>
       </c>
       <c r="D98">
-        <v>694.99572527123667</v>
+        <v>1785.5869119456177</v>
       </c>
       <c r="E98">
-        <v>221.97224110420146</v>
+        <v>476.05782947785121</v>
       </c>
       <c r="F98">
-        <v>658.59500630089099</v>
+        <v>1720.95600266373</v>
       </c>
       <c r="G98">
-        <v>6.1581704439425433E-8</v>
+        <v>4.7937071651572538E-8</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>3522.694580078125</v>
+        <v>1734.4371337890625</v>
       </c>
       <c r="B99">
-        <v>71.984590557234554</v>
+        <v>74.452138139340846</v>
       </c>
       <c r="C99">
-        <v>6.4373016357421875E-2</v>
+        <v>0.16713142395019531</v>
       </c>
       <c r="D99">
-        <v>761.6821406910002</v>
+        <v>1960.6543115423472</v>
       </c>
       <c r="E99">
-        <v>235.56754214277535</v>
+        <v>525.54015105797328</v>
       </c>
       <c r="F99">
-        <v>724.33943461365993</v>
+        <v>1888.9078534951243</v>
       </c>
       <c r="G99">
-        <v>6.237391594201227E-8</v>
+        <v>4.8579248961199503E-8</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>3162.277587890625</v>
+        <v>1559.3306884765625</v>
       </c>
       <c r="B100">
-        <v>72.453296349676606</v>
+        <v>74.394293705048383</v>
       </c>
       <c r="C100">
-        <v>5.4836273193359375E-2</v>
+        <v>0.18620491027832031</v>
       </c>
       <c r="D100">
-        <v>835.66815596651543</v>
+        <v>2145.2399704967015</v>
       </c>
       <c r="E100">
-        <v>251.93983055423988</v>
+        <v>577.10332702747553</v>
       </c>
       <c r="F100">
-        <v>796.78578594047303</v>
+        <v>2066.1573708095198</v>
       </c>
       <c r="G100">
-        <v>6.3165300062949781E-8</v>
+        <v>4.9399039944949056E-8</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>2838.736083984375</v>
+        <v>1401.90283203125</v>
       </c>
       <c r="B101">
-        <v>72.832187967519104</v>
+        <v>74.150118569130385</v>
       </c>
       <c r="C101">
-        <v>6.4373016357421875E-2</v>
+        <v>0.16188621520996094</v>
       </c>
       <c r="D101">
-        <v>915.74359374649623</v>
+        <v>2358.2573430145271</v>
       </c>
       <c r="E101">
-        <v>270.30126493263037</v>
+        <v>644.08216612055935</v>
       </c>
       <c r="F101">
-        <v>874.94202988744803</v>
+        <v>2268.5977737729058</v>
       </c>
       <c r="G101">
-        <v>6.4079015990376468E-8</v>
+        <v>5.0043159006094178E-8</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>2548.296630859375</v>
+        <v>1260.36865234375</v>
       </c>
       <c r="B102">
-        <v>73.352425391212336</v>
+        <v>74.061971141698933</v>
       </c>
       <c r="C102">
-        <v>5.0067901611328125E-2</v>
+        <v>0.19240379333496094</v>
       </c>
       <c r="D102">
-        <v>1005.2282037201707</v>
+        <v>2576.9700970608665</v>
       </c>
       <c r="E102">
-        <v>287.98179292234295</v>
+        <v>707.62952997990089</v>
       </c>
       <c r="F102">
-        <v>963.09409119759096</v>
+        <v>2477.9094675646074</v>
       </c>
       <c r="G102">
-        <v>6.4848723723489633E-8</v>
+        <v>5.0960901686667283E-8</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>2287.5732421875</v>
+        <v>1133.1236572265625</v>
       </c>
       <c r="B103">
-        <v>73.643724959411287</v>
+        <v>73.653895620640128</v>
       </c>
       <c r="C103">
-        <v>5.0067901611328125E-2</v>
+        <v>0.15950202941894531</v>
       </c>
       <c r="D103">
-        <v>1101.5171588699716</v>
+        <v>2815.2739799514757</v>
       </c>
       <c r="E103">
-        <v>310.19745347441165</v>
+        <v>792.32774608392958</v>
       </c>
       <c r="F103">
-        <v>1056.9378369341143</v>
+        <v>2701.4781740701483</v>
       </c>
       <c r="G103">
-        <v>6.5825729133195897E-8</v>
+        <v>5.199257916251185E-8</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>2053.525146484375</v>
+        <v>1018.7250366210938</v>
       </c>
       <c r="B104">
-        <v>73.885568064530219</v>
+        <v>73.533710302626872</v>
       </c>
       <c r="C104">
-        <v>4.5299530029296875E-2</v>
+        <v>0.19097328186035156</v>
       </c>
       <c r="D104">
-        <v>1210.5292301775046</v>
+        <v>3116.1902321967787</v>
       </c>
       <c r="E104">
-        <v>335.99043804808548</v>
+        <v>883.28776243727305</v>
       </c>
       <c r="F104">
-        <v>1162.9666558652477</v>
+        <v>2988.3848968911566</v>
       </c>
       <c r="G104">
-        <v>6.6642739784911554E-8</v>
+        <v>5.2278921437028951E-8</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>1843.4229736328125</v>
+        <v>915.8759765625</v>
       </c>
       <c r="B105">
-        <v>74.219665192936759</v>
+        <v>73.328822487190536</v>
       </c>
       <c r="C105">
-        <v>1.9311904907226563E-2</v>
+        <v>0.19574165344238281</v>
       </c>
       <c r="D105">
-        <v>1330.2469898495199</v>
+        <v>3383.9870257603638</v>
       </c>
       <c r="E105">
-        <v>361.76063732861076</v>
+        <v>970.79364138047765</v>
       </c>
       <c r="F105">
-        <v>1280.1118292099741</v>
+        <v>3241.7476608104007</v>
       </c>
       <c r="G105">
-        <v>6.7444606515186978E-8</v>
+        <v>5.3604871328918455E-8</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>1654.817138671875</v>
+        <v>823.410400390625</v>
       </c>
       <c r="B106">
-        <v>74.356170375725043</v>
+        <v>72.892661984942578</v>
       </c>
       <c r="C106">
-        <v>3.2186508178710938E-2</v>
+        <v>0.19717216491699219</v>
       </c>
       <c r="D106">
-        <v>1454.6793929641685</v>
+        <v>3710.2125380792327</v>
       </c>
       <c r="E106">
-        <v>392.26380251308677</v>
+        <v>1091.4062626002606</v>
       </c>
       <c r="F106">
-        <v>1400.7930773503188</v>
+        <v>3546.0554772418991</v>
       </c>
       <c r="G106">
-        <v>6.8658788298717516E-8</v>
+        <v>5.4507750290199881E-8</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>1485.508056640625</v>
+        <v>740.280029296875</v>
       </c>
       <c r="B107">
-        <v>74.643379664984991</v>
+        <v>72.584353714611268</v>
       </c>
       <c r="C107">
-        <v>2.0742416381835938E-2</v>
+        <v>0.19621849060058594</v>
       </c>
       <c r="D107">
-        <v>1600.8460020760133</v>
+        <v>4049.1631386593208</v>
       </c>
       <c r="E107">
-        <v>423.94581540022926</v>
+        <v>1211.92005161015</v>
       </c>
       <c r="F107">
-        <v>1543.6896929005486</v>
+        <v>3863.5439575579639</v>
       </c>
       <c r="G107">
-        <v>6.9404098213873029E-8</v>
+        <v>5.5646549543737422E-8</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>1333.521484375</v>
+        <v>665.5423583984375</v>
       </c>
       <c r="B108">
-        <v>74.708167236278854</v>
+        <v>71.926782706620202</v>
       </c>
       <c r="C108">
-        <v>2.384185791015625E-4</v>
+        <v>0.19431114196777344</v>
       </c>
       <c r="D108">
-        <v>1757.111846390379</v>
+        <v>4459.0668508070885</v>
       </c>
       <c r="E108">
-        <v>463.41286675684046</v>
+        <v>1383.3455863714087</v>
       </c>
       <c r="F108">
-        <v>1694.9013409781744</v>
+        <v>4239.0602931113626</v>
       </c>
       <c r="G108">
-        <v>7.0416703705866128E-8</v>
+        <v>5.6412433766766389E-8</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>1197.0850830078125</v>
+        <v>598.35009765625</v>
       </c>
       <c r="B109">
-        <v>74.413979347481813</v>
+        <v>71.730324013717436</v>
       </c>
       <c r="C109">
-        <v>3.4570693969726563E-2</v>
+        <v>0.19478797912597656</v>
       </c>
       <c r="D109">
-        <v>1932.2477601414839</v>
+        <v>4857.6861285247787</v>
       </c>
       <c r="E109">
-        <v>519.16563153735706</v>
+        <v>1522.8356595956445</v>
       </c>
       <c r="F109">
-        <v>1861.1954367024971</v>
+        <v>4612.817585503024</v>
       </c>
       <c r="G109">
-        <v>7.143369802451666E-8</v>
+        <v>5.7663166133749366E-8</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>1074.6077880859375</v>
+        <v>537.9415283203125</v>
       </c>
       <c r="B110">
-        <v>74.363953632558065</v>
+        <v>70.945766328458134</v>
       </c>
       <c r="C110">
-        <v>4.6014785766601563E-2</v>
+        <v>0.21719932556152344</v>
       </c>
       <c r="D110">
-        <v>2131.6026764997555</v>
+        <v>5320.4019381803837</v>
       </c>
       <c r="E110">
-        <v>574.52174549364076</v>
+        <v>1736.9143507117926</v>
       </c>
       <c r="F110">
-        <v>2052.7188639499227</v>
+        <v>5028.8970283835615</v>
       </c>
       <c r="G110">
-        <v>7.2150720862683719E-8</v>
+        <v>5.8831824371740133E-8</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>964.66162109375</v>
+        <v>483.63168334960938</v>
       </c>
       <c r="B111">
-        <v>74.572344029218172</v>
+        <v>70.423382655404723</v>
       </c>
       <c r="C111">
-        <v>3.0279159545898438E-2</v>
+        <v>0.21719932556152344</v>
       </c>
       <c r="D111">
-        <v>2331.514969999901</v>
+        <v>5808.8398516212119</v>
       </c>
       <c r="E111">
-        <v>620.23297803055266</v>
+        <v>1946.3510311201155</v>
       </c>
       <c r="F111">
-        <v>2247.5037504522638</v>
+        <v>5473.0556442850466</v>
       </c>
       <c r="G111">
-        <v>7.3408222120757811E-8</v>
+        <v>6.0127829053585021E-8</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>865.96429443359375</v>
+        <v>434.80490112304688</v>
       </c>
       <c r="B112">
-        <v>74.29937966163574</v>
+        <v>69.737639935919447</v>
       </c>
       <c r="C112">
-        <v>3.4093856811523438E-2</v>
+        <v>0.21767616271972656</v>
       </c>
       <c r="D112">
-        <v>2555.028314698643</v>
+        <v>6340.0991373982852</v>
       </c>
       <c r="E112">
-        <v>691.41843248982559</v>
+        <v>2195.6995779615804</v>
       </c>
       <c r="F112">
-        <v>2459.6971846398292</v>
+        <v>5947.7525533076623</v>
       </c>
       <c r="G112">
-        <v>7.4720281969572142E-8</v>
+        <v>6.1542170447978022E-8</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>777.36505126953125</v>
+        <v>390.9075927734375</v>
       </c>
       <c r="B113">
-        <v>74.189810508838974</v>
+        <v>69.055785979552212</v>
       </c>
       <c r="C113">
-        <v>1.5974044799804688E-2</v>
+        <v>0.21672248840332031</v>
       </c>
       <c r="D113">
-        <v>2806.0999218121192</v>
+        <v>6912.8711272069968</v>
       </c>
       <c r="E113">
-        <v>764.52575050347627</v>
+        <v>2471.0666187704965</v>
       </c>
       <c r="F113">
-        <v>2699.9439157158572</v>
+        <v>6456.1301866497615</v>
       </c>
       <c r="G113">
-        <v>7.5829881441011386E-8</v>
+        <v>6.3062872134329909E-8</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>697.83056640625</v>
+        <v>351.44210815429688</v>
       </c>
       <c r="B114">
-        <v>74.235367244095173</v>
+        <v>68.270230265648337</v>
       </c>
       <c r="C114">
-        <v>2.3603439331054688E-2</v>
+        <v>0.21624565124511719</v>
       </c>
       <c r="D114">
-        <v>3074.7574365781479</v>
+        <v>7543.6031971142647</v>
       </c>
       <c r="E114">
-        <v>835.36929371536792</v>
+        <v>2792.8641828921136</v>
       </c>
       <c r="F114">
-        <v>2959.1031473928228</v>
+        <v>7007.5572670817983</v>
       </c>
       <c r="G114">
-        <v>7.7074379883699512E-8</v>
+        <v>6.4624869727746302E-8</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>626.43353271484375</v>
+        <v>315.96099853515625</v>
       </c>
       <c r="B115">
-        <v>73.817944120043848</v>
+        <v>67.397646533752535</v>
       </c>
       <c r="C115">
-        <v>4.6014785766601563E-2</v>
+        <v>0.18572807312011719</v>
       </c>
       <c r="D115">
-        <v>3385.9586912400659</v>
+        <v>8204.3946409761775</v>
       </c>
       <c r="E115">
-        <v>943.63399164287648</v>
+        <v>3153.221606386292</v>
       </c>
       <c r="F115">
-        <v>3251.8104416771084</v>
+        <v>7574.2514432712933</v>
       </c>
       <c r="G115">
-        <v>7.8130375779008548E-8</v>
+        <v>6.6503872616441419E-8</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>562.34130859375</v>
+        <v>284.06201171875</v>
       </c>
       <c r="B116">
-        <v>73.439170359316378</v>
+        <v>66.492215436290024</v>
       </c>
       <c r="C116">
-        <v>3.8385391235351563E-2</v>
+        <v>0.18525123596191406</v>
       </c>
       <c r="D116">
-        <v>3705.7179290601675</v>
+        <v>8918.8779766160642</v>
       </c>
       <c r="E116">
-        <v>1056.2524239399168</v>
+        <v>3557.5055263665404</v>
       </c>
       <c r="F116">
-        <v>3551.9960848344172</v>
+        <v>8178.6636311587354</v>
       </c>
       <c r="G116">
-        <v>7.967969555697451E-8</v>
+        <v>6.8505371558915934E-8</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>504.80657958984375</v>
+        <v>255.38351440429688</v>
       </c>
       <c r="B117">
-        <v>73.063286511428501</v>
+        <v>65.485415856540925</v>
       </c>
       <c r="C117">
-        <v>6.1273574829101563E-2</v>
+        <v>0.18620491027832031</v>
       </c>
       <c r="D117">
-        <v>4064.0672557014213</v>
+        <v>9682.3537507125238</v>
       </c>
       <c r="E117">
-        <v>1183.9246975651388</v>
+        <v>4017.4491966802912</v>
       </c>
       <c r="F117">
-        <v>3887.7969300568898</v>
+        <v>8809.5446026471636</v>
       </c>
       <c r="G117">
-        <v>8.1094528361764735E-8</v>
+        <v>7.0741426610477816E-8</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>453.15835571289063</v>
+        <v>229.600341796875</v>
       </c>
       <c r="B118">
-        <v>72.690917508388608</v>
+        <v>64.38230918443</v>
       </c>
       <c r="C118">
-        <v>6.0319900512695313E-2</v>
+        <v>0.18954277038574219</v>
       </c>
       <c r="D118">
-        <v>4455.215081846135</v>
+        <v>10510.769107731412</v>
       </c>
       <c r="E118">
-        <v>1325.5432956101702</v>
+        <v>4544.4800737771593</v>
       </c>
       <c r="F118">
-        <v>4253.4546426372281</v>
+        <v>9477.5507434718238</v>
       </c>
       <c r="G118">
-        <v>8.2571150024814525E-8</v>
+        <v>7.3139415118886197E-8</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>406.79443359375</v>
+        <v>206.42021179199219</v>
       </c>
       <c r="B119">
-        <v>72.299492428930904</v>
+        <v>63.212647595822482</v>
       </c>
       <c r="C119">
-        <v>5.9366226196289063E-2</v>
+        <v>0.19335746765136719</v>
       </c>
       <c r="D119">
-        <v>4882.9107765887738</v>
+        <v>11373.738157327673</v>
       </c>
       <c r="E119">
-        <v>1484.6075185310322</v>
+        <v>5125.9219809391034</v>
       </c>
       <c r="F119">
-        <v>4651.7478616158805</v>
+        <v>10153.169136618222</v>
       </c>
       <c r="G119">
-        <v>8.4106384332366678E-8</v>
+        <v>7.5939247865613209E-8</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>365.17413330078125</v>
+        <v>185.58030700683594</v>
       </c>
       <c r="B120">
-        <v>71.839282822885622</v>
+        <v>61.953616176813938</v>
       </c>
       <c r="C120">
-        <v>6.2704086303710938E-2</v>
+        <v>0.19247627258300781</v>
       </c>
       <c r="D120">
-        <v>5344.7458188705505</v>
+        <v>12304.367847669255</v>
       </c>
       <c r="E120">
-        <v>1665.8692461675578</v>
+        <v>5785.3439552480186</v>
       </c>
       <c r="F120">
-        <v>5078.5024882348298</v>
+        <v>10859.432004033735</v>
       </c>
       <c r="G120">
-        <v>8.581919864112608E-8</v>
+        <v>7.897345393336787E-8</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>327.81210327148438</v>
+        <v>166.84437561035156</v>
       </c>
       <c r="B121">
-        <v>71.31630247161884</v>
+        <v>60.688417592695224</v>
       </c>
       <c r="C121">
-        <v>6.1750411987304688E-2</v>
+        <v>0.19185638427734375</v>
       </c>
       <c r="D121">
-        <v>5849.4009748660537</v>
+        <v>13273.070763267619</v>
       </c>
       <c r="E121">
-        <v>1873.8173832495102</v>
+        <v>6497.9476866163805</v>
       </c>
       <c r="F121">
-        <v>5541.1461069886882</v>
+        <v>11573.723832401847</v>
       </c>
       <c r="G121">
-        <v>8.7618445891593349E-8</v>
+        <v>8.2420538075696647E-8</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>294.272705078125</v>
+        <v>150</v>
       </c>
       <c r="B122">
-        <v>70.753226143312148</v>
+        <v>59.347317297616328</v>
       </c>
       <c r="C122">
-        <v>3.6954879760742188E-2</v>
+        <v>0.1939544677734375</v>
       </c>
       <c r="D122">
-        <v>6401.4009066382559</v>
+        <v>14303.341085249958</v>
       </c>
       <c r="E122">
-        <v>2110.1417022984529</v>
+        <v>7292.3101638504641</v>
       </c>
       <c r="F122">
-        <v>6043.6111360452433</v>
+        <v>12304.786819575653</v>
       </c>
       <c r="G122">
-        <v>8.9489820586553241E-8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A123">
-        <v>264.16482543945313</v>
-      </c>
-      <c r="B123">
-        <v>70.139743852734455</v>
-      </c>
-      <c r="C123">
-        <v>3.7431716918945313E-2</v>
-      </c>
-      <c r="D123">
-        <v>6992.9450436078532</v>
-      </c>
-      <c r="E123">
-        <v>2375.6938288646188</v>
-      </c>
-      <c r="F123">
-        <v>6577.0327058951298</v>
-      </c>
-      <c r="G123">
-        <v>9.1604148262788013E-8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A124">
-        <v>237.13737487792969</v>
-      </c>
-      <c r="B124">
-        <v>69.469038701727726</v>
-      </c>
-      <c r="C124">
-        <v>4.0769577026367188E-2</v>
-      </c>
-      <c r="D124">
-        <v>7636.2797054714647</v>
-      </c>
-      <c r="E124">
-        <v>2678.1462742949848</v>
-      </c>
-      <c r="F124">
-        <v>7151.2446660476699</v>
-      </c>
-      <c r="G124">
-        <v>9.3850909763371753E-8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A125">
-        <v>212.87516784667969</v>
-      </c>
-      <c r="B125">
-        <v>68.761097768249172</v>
-      </c>
-      <c r="C125">
-        <v>4.5061111450195313E-2</v>
-      </c>
-      <c r="D125">
-        <v>8336.3729709367362</v>
-      </c>
-      <c r="E125">
-        <v>3019.9137020679591</v>
-      </c>
-      <c r="F125">
-        <v>7770.1502908648281</v>
-      </c>
-      <c r="G125">
-        <v>9.6220079013937364E-8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A126">
-        <v>191.09529113769531</v>
-      </c>
-      <c r="B126">
-        <v>67.983726604982863</v>
-      </c>
-      <c r="C126">
-        <v>4.9352645874023438E-2</v>
-      </c>
-      <c r="D126">
-        <v>9091.3179430203763</v>
-      </c>
-      <c r="E126">
-        <v>3408.0616397198437</v>
-      </c>
-      <c r="F126">
-        <v>8428.3555810700309</v>
-      </c>
-      <c r="G126">
-        <v>9.8816006025950269E-8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A127">
-        <v>171.54379272460938</v>
-      </c>
-      <c r="B127">
-        <v>67.190853698938199</v>
-      </c>
-      <c r="C127">
-        <v>5.1736831665039063E-2</v>
-      </c>
-      <c r="D127">
-        <v>9907.27009618187</v>
-      </c>
-      <c r="E127">
-        <v>3840.6794848509016</v>
-      </c>
-      <c r="F127">
-        <v>9132.5342514192034</v>
-      </c>
-      <c r="G127">
-        <v>1.0159066756027112E-7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A128">
-        <v>153.99264526367188</v>
-      </c>
-      <c r="B128">
-        <v>66.344654234507118</v>
-      </c>
-      <c r="C128">
-        <v>5.1259994506835938E-2</v>
-      </c>
-      <c r="D128">
-        <v>10781.592220577515</v>
-      </c>
-      <c r="E128">
-        <v>4325.9415965070248</v>
-      </c>
-      <c r="F128">
-        <v>9875.6751725858139</v>
-      </c>
-      <c r="G128">
-        <v>1.046534031750139E-7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A129">
-        <v>138.23722839355469</v>
-      </c>
-      <c r="B129">
-        <v>65.393657481722713</v>
-      </c>
-      <c r="C129">
-        <v>4.8398971557617188E-2</v>
-      </c>
-      <c r="D129">
-        <v>11714.102344741417</v>
-      </c>
-      <c r="E129">
-        <v>4877.5348046135323</v>
-      </c>
-      <c r="F129">
-        <v>10650.344969664598</v>
-      </c>
-      <c r="G129">
-        <v>1.0810142997169514E-7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A130">
-        <v>124.09377288818359</v>
-      </c>
-      <c r="B130">
-        <v>64.401660442010197</v>
-      </c>
-      <c r="C130">
-        <v>3.6072731018066406E-2</v>
-      </c>
-      <c r="D130">
-        <v>12730.646718146565</v>
-      </c>
-      <c r="E130">
-        <v>5500.3982987568479</v>
-      </c>
-      <c r="F130">
-        <v>11481.070699951668</v>
-      </c>
-      <c r="G130">
-        <v>1.1170889386526705E-7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A131">
-        <v>111.39738464355469</v>
-      </c>
-      <c r="B131">
-        <v>63.360426385217153</v>
-      </c>
-      <c r="C131">
-        <v>3.9505958557128906E-2</v>
-      </c>
-      <c r="D131">
-        <v>13806.646310647418</v>
-      </c>
-      <c r="E131">
-        <v>6190.5766367947781</v>
-      </c>
-      <c r="F131">
-        <v>12340.998470597289</v>
-      </c>
-      <c r="G131">
-        <v>1.1576968148760318E-7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A132">
-        <v>100</v>
-      </c>
-      <c r="B132">
-        <v>62.257830660972473</v>
-      </c>
-      <c r="C132">
-        <v>4.3368339538574219E-2</v>
-      </c>
-      <c r="D132">
-        <v>14936.985364881793</v>
-      </c>
-      <c r="E132">
-        <v>6953.0705528224908</v>
-      </c>
-      <c r="F132">
-        <v>13219.997794181572</v>
-      </c>
-      <c r="G132">
-        <v>1.2038953831137786E-7</v>
+        <v>8.6229283733544619E-8</v>
       </c>
     </row>
   </sheetData>
@@ -3493,7 +3271,3044 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419EDAFE-680F-4E5D-B645-44B0FD9441BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3920B154-E13D-46A1-8EAF-3C71811C2B84}">
+  <dimension ref="A1:G132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>100000</v>
+      </c>
+      <c r="B3">
+        <v>27.7181740884647</v>
+      </c>
+      <c r="C3">
+        <v>0.2384185791015625</v>
+      </c>
+      <c r="D3">
+        <v>99.557312440904312</v>
+      </c>
+      <c r="E3">
+        <v>88.13272598913629</v>
+      </c>
+      <c r="F3">
+        <v>46.306382607364839</v>
+      </c>
+      <c r="G3">
+        <v>3.436997971562184E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>89768.7109375</v>
+      </c>
+      <c r="B4">
+        <v>28.965408023997398</v>
+      </c>
+      <c r="C4">
+        <v>-2.384185791015625E-2</v>
+      </c>
+      <c r="D4">
+        <v>100.63463528632269</v>
+      </c>
+      <c r="E4">
+        <v>88.046475041223047</v>
+      </c>
+      <c r="F4">
+        <v>48.735490682114531</v>
+      </c>
+      <c r="G4">
+        <v>3.6378919832074486E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>80584.21875</v>
+      </c>
+      <c r="B5">
+        <v>31.645280922300465</v>
+      </c>
+      <c r="C5">
+        <v>-7.152557373046875E-2</v>
+      </c>
+      <c r="D5">
+        <v>100.93584739017042</v>
+      </c>
+      <c r="E5">
+        <v>85.927954791017967</v>
+      </c>
+      <c r="F5">
+        <v>52.95688693460508</v>
+      </c>
+      <c r="G5">
+        <v>3.729474865110527E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>72339.4140625</v>
+      </c>
+      <c r="B6">
+        <v>32.890211216833244</v>
+      </c>
+      <c r="C6">
+        <v>2.384185791015625E-2</v>
+      </c>
+      <c r="D6">
+        <v>106.32946685618877</v>
+      </c>
+      <c r="E6">
+        <v>89.286198571042291</v>
+      </c>
+      <c r="F6">
+        <v>57.74019628173906</v>
+      </c>
+      <c r="G6">
+        <v>3.8103677172904969E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>64938.1640625</v>
+      </c>
+      <c r="B7">
+        <v>34.32901686326386</v>
+      </c>
+      <c r="C7">
+        <v>0.11920928955078125</v>
+      </c>
+      <c r="D7">
+        <v>111.68769562251364</v>
+      </c>
+      <c r="E7">
+        <v>92.233128261989123</v>
+      </c>
+      <c r="F7">
+        <v>62.985644431685522</v>
+      </c>
+      <c r="G7">
+        <v>3.8911551579243511E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>58294.15234375</v>
+      </c>
+      <c r="B8">
+        <v>36.093980559291261</v>
+      </c>
+      <c r="C8">
+        <v>-7.152557373046875E-2</v>
+      </c>
+      <c r="D8">
+        <v>116.4780783884249</v>
+      </c>
+      <c r="E8">
+        <v>94.120318555743097</v>
+      </c>
+      <c r="F8">
+        <v>68.618571684533748</v>
+      </c>
+      <c r="G8">
+        <v>3.9788124315159577E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>52329.91015625</v>
+      </c>
+      <c r="B9">
+        <v>37.721418565872561</v>
+      </c>
+      <c r="C9">
+        <v>-0.26941299438476563</v>
+      </c>
+      <c r="D9">
+        <v>122.08528100032161</v>
+      </c>
+      <c r="E9">
+        <v>96.568831449998626</v>
+      </c>
+      <c r="F9">
+        <v>74.6945555533283</v>
+      </c>
+      <c r="G9">
+        <v>4.0717508438782101E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>46975.88671875</v>
+      </c>
+      <c r="B10">
+        <v>39.656829887803674</v>
+      </c>
+      <c r="C10">
+        <v>-0.22649765014648438</v>
+      </c>
+      <c r="D10">
+        <v>127.41563593686115</v>
+      </c>
+      <c r="E10">
+        <v>98.094829173338908</v>
+      </c>
+      <c r="F10">
+        <v>81.315120184675379</v>
+      </c>
+      <c r="G10">
+        <v>4.1665235108319237E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>42169.6484375</v>
+      </c>
+      <c r="B11">
+        <v>41.462472977259189</v>
+      </c>
+      <c r="C11">
+        <v>-0.28371810913085938</v>
+      </c>
+      <c r="D11">
+        <v>133.73074152734884</v>
+      </c>
+      <c r="E11">
+        <v>100.21642107490779</v>
+      </c>
+      <c r="F11">
+        <v>88.547050636321941</v>
+      </c>
+      <c r="G11">
+        <v>4.2623199927590232E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>37855.15234375</v>
+      </c>
+      <c r="B12">
+        <v>43.289598257230921</v>
+      </c>
+      <c r="C12">
+        <v>-0.18358230590820313</v>
+      </c>
+      <c r="D12">
+        <v>140.8556618649354</v>
+      </c>
+      <c r="E12">
+        <v>102.52844924556648</v>
+      </c>
+      <c r="F12">
+        <v>96.582786120034427</v>
+      </c>
+      <c r="G12">
+        <v>4.3530675252042826E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>33982.08203125</v>
+      </c>
+      <c r="B13">
+        <v>45.120156294979452</v>
+      </c>
+      <c r="C13">
+        <v>-0.11205673217773438</v>
+      </c>
+      <c r="D13">
+        <v>148.70684989047794</v>
+      </c>
+      <c r="E13">
+        <v>104.93087502253924</v>
+      </c>
+      <c r="F13">
+        <v>105.37190646160575</v>
+      </c>
+      <c r="G13">
+        <v>4.4447292388669626E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>30505.279296875</v>
+      </c>
+      <c r="B14">
+        <v>46.99339684866893</v>
+      </c>
+      <c r="C14">
+        <v>-0.21696090698242188</v>
+      </c>
+      <c r="D14">
+        <v>157.48877881085576</v>
+      </c>
+      <c r="E14">
+        <v>107.42036228265597</v>
+      </c>
+      <c r="F14">
+        <v>115.16762226597193</v>
+      </c>
+      <c r="G14">
+        <v>4.5301723547909633E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>27384.197265625</v>
+      </c>
+      <c r="B15">
+        <v>48.741880236577032</v>
+      </c>
+      <c r="C15">
+        <v>-0.29802322387695313</v>
+      </c>
+      <c r="D15">
+        <v>167.3302916715987</v>
+      </c>
+      <c r="E15">
+        <v>110.34635518421516</v>
+      </c>
+      <c r="F15">
+        <v>125.78993762802067</v>
+      </c>
+      <c r="G15">
+        <v>4.6203429764660411E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>24582.44140625</v>
+      </c>
+      <c r="B16">
+        <v>50.506264582774641</v>
+      </c>
+      <c r="C16">
+        <v>-0.23126602172851563</v>
+      </c>
+      <c r="D16">
+        <v>178.06024290863283</v>
+      </c>
+      <c r="E16">
+        <v>113.24521922337911</v>
+      </c>
+      <c r="F16">
+        <v>137.40804353359425</v>
+      </c>
+      <c r="G16">
+        <v>4.7117578519311608E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>22067.33984375</v>
+      </c>
+      <c r="B17">
+        <v>52.220044614660324</v>
+      </c>
+      <c r="C17">
+        <v>-0.27418136596679688</v>
+      </c>
+      <c r="D17">
+        <v>189.98052062383883</v>
+      </c>
+      <c r="E17">
+        <v>116.38787744049499</v>
+      </c>
+      <c r="F17">
+        <v>150.15478747413005</v>
+      </c>
+      <c r="G17">
+        <v>4.8032032529652349E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>19809.568359375</v>
+      </c>
+      <c r="B18">
+        <v>53.981610514074028</v>
+      </c>
+      <c r="C18">
+        <v>-0.24080276489257813</v>
+      </c>
+      <c r="D18">
+        <v>203.34588092538348</v>
+      </c>
+      <c r="E18">
+        <v>119.57650450169504</v>
+      </c>
+      <c r="F18">
+        <v>164.47190295146567</v>
+      </c>
+      <c r="G18">
+        <v>4.8848744020594336E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>17782.794921875</v>
+      </c>
+      <c r="B19">
+        <v>55.644890140518761</v>
+      </c>
+      <c r="C19">
+        <v>-0.17881393432617188</v>
+      </c>
+      <c r="D19">
+        <v>218.24341843602519</v>
+      </c>
+      <c r="E19">
+        <v>123.15920654264129</v>
+      </c>
+      <c r="F19">
+        <v>180.17213861868046</v>
+      </c>
+      <c r="G19">
+        <v>4.9674382599096618E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>15963.3857421875</v>
+      </c>
+      <c r="B20">
+        <v>57.228856134847298</v>
+      </c>
+      <c r="C20">
+        <v>-0.16450881958007813</v>
+      </c>
+      <c r="D20">
+        <v>234.29771880042776</v>
+      </c>
+      <c r="E20">
+        <v>126.82179461238864</v>
+      </c>
+      <c r="F20">
+        <v>197.00673452036463</v>
+      </c>
+      <c r="G20">
+        <v>5.0607402965625117E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>14330.1259765625</v>
+      </c>
+      <c r="B21">
+        <v>58.739300507342733</v>
+      </c>
+      <c r="C21">
+        <v>-0.17404556274414063</v>
+      </c>
+      <c r="D21">
+        <v>252.71953653939474</v>
+      </c>
+      <c r="E21">
+        <v>131.1444811067509</v>
+      </c>
+      <c r="F21">
+        <v>216.02844540459836</v>
+      </c>
+      <c r="G21">
+        <v>5.1411370705400213E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>12863.9697265625</v>
+      </c>
+      <c r="B22">
+        <v>60.142063727877108</v>
+      </c>
+      <c r="C22">
+        <v>-0.16927719116210938</v>
+      </c>
+      <c r="D22">
+        <v>273.03176990056494</v>
+      </c>
+      <c r="E22">
+        <v>135.92918684348516</v>
+      </c>
+      <c r="F22">
+        <v>236.79020997309826</v>
+      </c>
+      <c r="G22">
+        <v>5.2249408663216214E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>11547.8203125</v>
+      </c>
+      <c r="B23">
+        <v>61.54705155105173</v>
+      </c>
+      <c r="C23">
+        <v>-0.17881393432617188</v>
+      </c>
+      <c r="D23">
+        <v>295.11783529299964</v>
+      </c>
+      <c r="E23">
+        <v>140.60502979695079</v>
+      </c>
+      <c r="F23">
+        <v>259.47015686553368</v>
+      </c>
+      <c r="G23">
+        <v>5.311689741585043E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>10366.3291015625</v>
+      </c>
+      <c r="B24">
+        <v>62.945000968525953</v>
+      </c>
+      <c r="C24">
+        <v>-0.18358230590820313</v>
+      </c>
+      <c r="D24">
+        <v>319.67439901362286</v>
+      </c>
+      <c r="E24">
+        <v>145.40248750976832</v>
+      </c>
+      <c r="F24">
+        <v>284.69253241118327</v>
+      </c>
+      <c r="G24">
+        <v>5.3928589776191814E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>9305.720703125</v>
+      </c>
+      <c r="B25">
+        <v>64.463972655760983</v>
+      </c>
+      <c r="C25">
+        <v>6.9141387939453125E-2</v>
+      </c>
+      <c r="D25">
+        <v>343.94808699860863</v>
+      </c>
+      <c r="E25">
+        <v>148.26864381492072</v>
+      </c>
+      <c r="F25">
+        <v>310.34931256776872</v>
+      </c>
+      <c r="G25">
+        <v>5.510859390899892E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>8353.625</v>
+      </c>
+      <c r="B26">
+        <v>65.563293990910765</v>
+      </c>
+      <c r="C26">
+        <v>5.0067901611328125E-2</v>
+      </c>
+      <c r="D26">
+        <v>374.43687025280474</v>
+      </c>
+      <c r="E26">
+        <v>154.89995237861879</v>
+      </c>
+      <c r="F26">
+        <v>340.89437448837043</v>
+      </c>
+      <c r="G26">
+        <v>5.5888869066957246E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>7498.94189453125</v>
+      </c>
+      <c r="B27">
+        <v>66.664079579281832</v>
+      </c>
+      <c r="C27">
+        <v>4.5299530029296875E-2</v>
+      </c>
+      <c r="D27">
+        <v>407.770524400814</v>
+      </c>
+      <c r="E27">
+        <v>161.52656006225345</v>
+      </c>
+      <c r="F27">
+        <v>374.4141703576002</v>
+      </c>
+      <c r="G27">
+        <v>5.6684962823751667E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>6731.70361328125</v>
+      </c>
+      <c r="B28">
+        <v>67.648765429255164</v>
+      </c>
+      <c r="C28">
+        <v>2.6226043701171875E-2</v>
+      </c>
+      <c r="D28">
+        <v>445.47531838797369</v>
+      </c>
+      <c r="E28">
+        <v>169.40684254151844</v>
+      </c>
+      <c r="F28">
+        <v>412.00677299406101</v>
+      </c>
+      <c r="G28">
+        <v>5.7383996292919258E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>6042.9638671875</v>
+      </c>
+      <c r="B29">
+        <v>68.5234463812412</v>
+      </c>
+      <c r="C29">
+        <v>5.4836273193359375E-2</v>
+      </c>
+      <c r="D29">
+        <v>486.54286089426802</v>
+      </c>
+      <c r="E29">
+        <v>178.1332930143046</v>
+      </c>
+      <c r="F29">
+        <v>452.76095835115791</v>
+      </c>
+      <c r="G29">
+        <v>5.8170281258779826E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5424.69091796875</v>
+      </c>
+      <c r="B30">
+        <v>69.364776356580521</v>
+      </c>
+      <c r="C30">
+        <v>5.4836273193359375E-2</v>
+      </c>
+      <c r="D30">
+        <v>532.23538658696862</v>
+      </c>
+      <c r="E30">
+        <v>187.5688205069813</v>
+      </c>
+      <c r="F30">
+        <v>498.08879159141873</v>
+      </c>
+      <c r="G30">
+        <v>5.8903128806345914E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>4869.67529296875</v>
+      </c>
+      <c r="B31">
+        <v>70.124985372738934</v>
+      </c>
+      <c r="C31">
+        <v>4.5299530029296875E-2</v>
+      </c>
+      <c r="D31">
+        <v>582.30017617507997</v>
+      </c>
+      <c r="E31">
+        <v>197.96428799256032</v>
+      </c>
+      <c r="F31">
+        <v>547.61632175559544</v>
+      </c>
+      <c r="G31">
+        <v>5.9682051642153866E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>4371.44482421875</v>
+      </c>
+      <c r="B32">
+        <v>70.837809716934345</v>
+      </c>
+      <c r="C32">
+        <v>5.0067901611328125E-2</v>
+      </c>
+      <c r="D32">
+        <v>636.93884968467751</v>
+      </c>
+      <c r="E32">
+        <v>209.07095920902867</v>
+      </c>
+      <c r="F32">
+        <v>601.64809669195904</v>
+      </c>
+      <c r="G32">
+        <v>6.0513543307172506E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>3924.189697265625</v>
+      </c>
+      <c r="B33">
+        <v>71.39100845546875</v>
+      </c>
+      <c r="C33">
+        <v>0.10728836059570313</v>
+      </c>
+      <c r="D33">
+        <v>697.72944129775419</v>
+      </c>
+      <c r="E33">
+        <v>222.65107489255604</v>
+      </c>
+      <c r="F33">
+        <v>661.25099024717201</v>
+      </c>
+      <c r="G33">
+        <v>6.133435506560506E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>3522.694580078125</v>
+      </c>
+      <c r="B34">
+        <v>71.968669158295938</v>
+      </c>
+      <c r="C34">
+        <v>6.9141387939453125E-2</v>
+      </c>
+      <c r="D34">
+        <v>764.88524489672795</v>
+      </c>
+      <c r="E34">
+        <v>236.76029239211746</v>
+      </c>
+      <c r="F34">
+        <v>727.31973835935901</v>
+      </c>
+      <c r="G34">
+        <v>6.2118329292136346E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>3162.277587890625</v>
+      </c>
+      <c r="B35">
+        <v>72.635831592511693</v>
+      </c>
+      <c r="C35">
+        <v>4.5299530029296875E-2</v>
+      </c>
+      <c r="D35">
+        <v>838.34820159006961</v>
+      </c>
+      <c r="E35">
+        <v>250.19996695165125</v>
+      </c>
+      <c r="F35">
+        <v>800.14228962522441</v>
+      </c>
+      <c r="G35">
+        <v>6.2900328988231288E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2838.736083984375</v>
+      </c>
+      <c r="B36">
+        <v>72.919430861008479</v>
+      </c>
+      <c r="C36">
+        <v>3.5762786865234375E-2</v>
+      </c>
+      <c r="D36">
+        <v>918.93713922252527</v>
+      </c>
+      <c r="E36">
+        <v>269.90669503112559</v>
+      </c>
+      <c r="F36">
+        <v>878.40528335151407</v>
+      </c>
+      <c r="G36">
+        <v>6.3826374210655055E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2548.296630859375</v>
+      </c>
+      <c r="B37">
+        <v>73.410344242734283</v>
+      </c>
+      <c r="C37">
+        <v>4.0531158447265625E-2</v>
+      </c>
+      <c r="D37">
+        <v>1009.4037216657987</v>
+      </c>
+      <c r="E37">
+        <v>288.20025299001986</v>
+      </c>
+      <c r="F37">
+        <v>967.38642097625802</v>
+      </c>
+      <c r="G37">
+        <v>6.4560987507732139E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2287.5732421875</v>
+      </c>
+      <c r="B38">
+        <v>73.818168172401585</v>
+      </c>
+      <c r="C38">
+        <v>3.5762786865234375E-2</v>
+      </c>
+      <c r="D38">
+        <v>1108.5371012412247</v>
+      </c>
+      <c r="E38">
+        <v>308.93442268430636</v>
+      </c>
+      <c r="F38">
+        <v>1064.619193565949</v>
+      </c>
+      <c r="G38">
+        <v>6.5350788512100198E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2053.525146484375</v>
+      </c>
+      <c r="B39">
+        <v>73.986572161219001</v>
+      </c>
+      <c r="C39">
+        <v>5.4836273193359375E-2</v>
+      </c>
+      <c r="D39">
+        <v>1217.2889273759563</v>
+      </c>
+      <c r="E39">
+        <v>335.80452440926831</v>
+      </c>
+      <c r="F39">
+        <v>1170.054551761742</v>
+      </c>
+      <c r="G39">
+        <v>6.6239034845563735E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>1843.4229736328125</v>
+      </c>
+      <c r="B40">
+        <v>74.259398499372878</v>
+      </c>
+      <c r="C40">
+        <v>3.3617019653320313E-2</v>
+      </c>
+      <c r="D40">
+        <v>1337.1553806720649</v>
+      </c>
+      <c r="E40">
+        <v>362.74694829354411</v>
+      </c>
+      <c r="F40">
+        <v>1287.0117185029728</v>
+      </c>
+      <c r="G40">
+        <v>6.7083024478540144E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>1654.817138671875</v>
+      </c>
+      <c r="B41">
+        <v>74.429690084513567</v>
+      </c>
+      <c r="C41">
+        <v>1.1920928955078125E-3</v>
+      </c>
+      <c r="D41">
+        <v>1464.3593732150896</v>
+      </c>
+      <c r="E41">
+        <v>393.06434396803644</v>
+      </c>
+      <c r="F41">
+        <v>1410.6200039074547</v>
+      </c>
+      <c r="G41">
+        <v>6.8180484525735074E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>1485.508056640625</v>
+      </c>
+      <c r="B42">
+        <v>74.505679346313983</v>
+      </c>
+      <c r="C42">
+        <v>1.4543533325195313E-2</v>
+      </c>
+      <c r="D42">
+        <v>1613.4216742118817</v>
+      </c>
+      <c r="E42">
+        <v>431.01407485611554</v>
+      </c>
+      <c r="F42">
+        <v>1554.7849903097849</v>
+      </c>
+      <c r="G42">
+        <v>6.8908814868650259E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>1333.521484375</v>
+      </c>
+      <c r="B43">
+        <v>74.751520506316197</v>
+      </c>
+      <c r="C43">
+        <v>3.1232833862304688E-2</v>
+      </c>
+      <c r="D43">
+        <v>1769.1828966655692</v>
+      </c>
+      <c r="E43">
+        <v>465.30502869458701</v>
+      </c>
+      <c r="F43">
+        <v>1706.8975810298352</v>
+      </c>
+      <c r="G43">
+        <v>6.9921808352629663E-8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>1197.0850830078125</v>
+      </c>
+      <c r="B44">
+        <v>74.887937039970822</v>
+      </c>
+      <c r="C44">
+        <v>1.4543533325195313E-2</v>
+      </c>
+      <c r="D44">
+        <v>1952.0545100707341</v>
+      </c>
+      <c r="E44">
+        <v>508.91578195093547</v>
+      </c>
+      <c r="F44">
+        <v>1884.5480989268385</v>
+      </c>
+      <c r="G44">
+        <v>7.0548516573137363E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>1074.6077880859375</v>
+      </c>
+      <c r="B45">
+        <v>74.182554591756428</v>
+      </c>
+      <c r="C45">
+        <v>5.4121017456054688E-2</v>
+      </c>
+      <c r="D45">
+        <v>2126.7445711088808</v>
+      </c>
+      <c r="E45">
+        <v>579.69359538349374</v>
+      </c>
+      <c r="F45">
+        <v>2046.215483817004</v>
+      </c>
+      <c r="G45">
+        <v>7.2380033742165429E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>964.66162109375</v>
+      </c>
+      <c r="B46">
+        <v>74.521703019662993</v>
+      </c>
+      <c r="C46">
+        <v>1.3589859008789063E-2</v>
+      </c>
+      <c r="D46">
+        <v>2331.322927228216</v>
+      </c>
+      <c r="E46">
+        <v>622.1679458926111</v>
+      </c>
+      <c r="F46">
+        <v>2246.7696005874091</v>
+      </c>
+      <c r="G46">
+        <v>7.3432208842108793E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>865.96429443359375</v>
+      </c>
+      <c r="B47">
+        <v>75.008995037319238</v>
+      </c>
+      <c r="C47">
+        <v>-1.1920928955078125E-3</v>
+      </c>
+      <c r="D47">
+        <v>2587.3617365235186</v>
+      </c>
+      <c r="E47">
+        <v>669.26612885631459</v>
+      </c>
+      <c r="F47">
+        <v>2499.3046241688271</v>
+      </c>
+      <c r="G47">
+        <v>7.3536160986047084E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>777.36505126953125</v>
+      </c>
+      <c r="B48">
+        <v>74.423533046510173</v>
+      </c>
+      <c r="C48">
+        <v>1.5974044799804688E-2</v>
+      </c>
+      <c r="D48">
+        <v>2816.3572284389475</v>
+      </c>
+      <c r="E48">
+        <v>756.26006888136908</v>
+      </c>
+      <c r="F48">
+        <v>2712.9207040375977</v>
+      </c>
+      <c r="G48">
+        <v>7.546716228063999E-8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>697.83056640625</v>
+      </c>
+      <c r="B49">
+        <v>74.294454273444998</v>
+      </c>
+      <c r="C49">
+        <v>1.5020370483398438E-2</v>
+      </c>
+      <c r="D49">
+        <v>3092.2708402118119</v>
+      </c>
+      <c r="E49">
+        <v>837.05800255629072</v>
+      </c>
+      <c r="F49">
+        <v>2976.8226096932176</v>
+      </c>
+      <c r="G49">
+        <v>7.6615596560760328E-8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>626.43353271484375</v>
+      </c>
+      <c r="B50">
+        <v>74.049969617384733</v>
+      </c>
+      <c r="C50">
+        <v>4.8875808715820313E-2</v>
+      </c>
+      <c r="D50">
+        <v>3386.3595274242712</v>
+      </c>
+      <c r="E50">
+        <v>930.56787907412968</v>
+      </c>
+      <c r="F50">
+        <v>3255.9905207805209</v>
+      </c>
+      <c r="G50">
+        <v>7.8030071079393732E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>562.34130859375</v>
+      </c>
+      <c r="B51">
+        <v>73.439013689856836</v>
+      </c>
+      <c r="C51">
+        <v>3.8385391235351563E-2</v>
+      </c>
+      <c r="D51">
+        <v>3745.4190492637795</v>
+      </c>
+      <c r="E51">
+        <v>1067.5783755865407</v>
+      </c>
+      <c r="F51">
+        <v>3590.0473905741128</v>
+      </c>
+      <c r="G51">
+        <v>7.8835161731364079E-8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>504.80657958984375</v>
+      </c>
+      <c r="B52">
+        <v>73.202048142405474</v>
+      </c>
+      <c r="C52">
+        <v>5.8412551879882813E-2</v>
+      </c>
+      <c r="D52">
+        <v>4083.6780507144977</v>
+      </c>
+      <c r="E52">
+        <v>1180.1730562849793</v>
+      </c>
+      <c r="F52">
+        <v>3909.4268095344014</v>
+      </c>
+      <c r="G52">
+        <v>8.0645852645295824E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>453.15835571289063</v>
+      </c>
+      <c r="B53">
+        <v>72.856468785660837</v>
+      </c>
+      <c r="C53">
+        <v>5.7935714721679688E-2</v>
+      </c>
+      <c r="D53">
+        <v>4477.9614142238197</v>
+      </c>
+      <c r="E53">
+        <v>1319.9526392140051</v>
+      </c>
+      <c r="F53">
+        <v>4279.0026241531305</v>
+      </c>
+      <c r="G53">
+        <v>8.2078155184691413E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>406.79443359375</v>
+      </c>
+      <c r="B54">
+        <v>72.461399708847651</v>
+      </c>
+      <c r="C54">
+        <v>5.7935714721679688E-2</v>
+      </c>
+      <c r="D54">
+        <v>4909.5009027094475</v>
+      </c>
+      <c r="E54">
+        <v>1479.4695171695366</v>
+      </c>
+      <c r="F54">
+        <v>4681.2785712314771</v>
+      </c>
+      <c r="G54">
+        <v>8.3575819621306673E-8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>365.17413330078125</v>
+      </c>
+      <c r="B55">
+        <v>72.021865518602866</v>
+      </c>
+      <c r="C55">
+        <v>6.0319900512695313E-2</v>
+      </c>
+      <c r="D55">
+        <v>5371.973615214275</v>
+      </c>
+      <c r="E55">
+        <v>1658.0812767057294</v>
+      </c>
+      <c r="F55">
+        <v>5109.6836499333522</v>
+      </c>
+      <c r="G55">
+        <v>8.5295498448903511E-8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>327.81210327148438</v>
+      </c>
+      <c r="B56">
+        <v>71.484030177202811</v>
+      </c>
+      <c r="C56">
+        <v>6.0319900512695313E-2</v>
+      </c>
+      <c r="D56">
+        <v>5880.9614813413036</v>
+      </c>
+      <c r="E56">
+        <v>1867.6108598013143</v>
+      </c>
+      <c r="F56">
+        <v>5576.5345530510522</v>
+      </c>
+      <c r="G56">
+        <v>8.7062423039586391E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>294.272705078125</v>
+      </c>
+      <c r="B57">
+        <v>70.95918478459518</v>
+      </c>
+      <c r="C57">
+        <v>3.5047531127929688E-2</v>
+      </c>
+      <c r="D57">
+        <v>6431.2503605338061</v>
+      </c>
+      <c r="E57">
+        <v>2098.1415446476949</v>
+      </c>
+      <c r="F57">
+        <v>6079.3735909622783</v>
+      </c>
+      <c r="G57">
+        <v>8.8963388771436982E-8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>264.16482543945313</v>
+      </c>
+      <c r="B58">
+        <v>70.3475629483289</v>
+      </c>
+      <c r="C58">
+        <v>3.6478042602539063E-2</v>
+      </c>
+      <c r="D58">
+        <v>7026.5688026761045</v>
+      </c>
+      <c r="E58">
+        <v>2363.1306452720241</v>
+      </c>
+      <c r="F58">
+        <v>6617.2715443842353</v>
+      </c>
+      <c r="G58">
+        <v>9.1047114370170045E-8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>237.13737487792969</v>
+      </c>
+      <c r="B59">
+        <v>69.690279311707314</v>
+      </c>
+      <c r="C59">
+        <v>3.9815902709960938E-2</v>
+      </c>
+      <c r="D59">
+        <v>7673.0260012651443</v>
+      </c>
+      <c r="E59">
+        <v>2663.2671717529815</v>
+      </c>
+      <c r="F59">
+        <v>7195.9944405171582</v>
+      </c>
+      <c r="G59">
+        <v>9.3267278539031148E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>212.87516784667969</v>
+      </c>
+      <c r="B60">
+        <v>69.027865035746842</v>
+      </c>
+      <c r="C60">
+        <v>4.4107437133789063E-2</v>
+      </c>
+      <c r="D60">
+        <v>8375.9259274439428</v>
+      </c>
+      <c r="E60">
+        <v>2997.8600872531438</v>
+      </c>
+      <c r="F60">
+        <v>7821.0593936679852</v>
+      </c>
+      <c r="G60">
+        <v>9.5593760040037956E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>191.09529113769531</v>
+      </c>
+      <c r="B61">
+        <v>68.260542457885506</v>
+      </c>
+      <c r="C61">
+        <v>4.7445297241210938E-2</v>
+      </c>
+      <c r="D61">
+        <v>9139.6371302081516</v>
+      </c>
+      <c r="E61">
+        <v>3385.1984795733106</v>
+      </c>
+      <c r="F61">
+        <v>8489.6052985856804</v>
+      </c>
+      <c r="G61">
+        <v>9.8103080955555934E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>171.54379272460938</v>
+      </c>
+      <c r="B62">
+        <v>67.434231170878377</v>
+      </c>
+      <c r="C62">
+        <v>4.9829483032226563E-2</v>
+      </c>
+      <c r="D62">
+        <v>9950.3906385110786</v>
+      </c>
+      <c r="E62">
+        <v>3818.3995734583709</v>
+      </c>
+      <c r="F62">
+        <v>9188.5852314913991</v>
+      </c>
+      <c r="G62">
+        <v>1.0097095774211257E-7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>153.99264526367188</v>
+      </c>
+      <c r="B63">
+        <v>66.514314215470293</v>
+      </c>
+      <c r="C63">
+        <v>4.9829483032226563E-2</v>
+      </c>
+      <c r="D63">
+        <v>10828.716336610167</v>
+      </c>
+      <c r="E63">
+        <v>4315.4594626144235</v>
+      </c>
+      <c r="F63">
+        <v>9931.6618511354645</v>
+      </c>
+      <c r="G63">
+        <v>1.0406345191302882E-7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>138.23722839355469</v>
+      </c>
+      <c r="B64">
+        <v>65.552556874436817</v>
+      </c>
+      <c r="C64">
+        <v>4.8875808715820313E-2</v>
+      </c>
+      <c r="D64">
+        <v>11756.876638830632</v>
+      </c>
+      <c r="E64">
+        <v>4865.6817958653537</v>
+      </c>
+      <c r="F64">
+        <v>10702.770153659563</v>
+      </c>
+      <c r="G64">
+        <v>1.0757191870731963E-7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>124.09377288818359</v>
+      </c>
+      <c r="B65">
+        <v>64.61581369443833</v>
+      </c>
+      <c r="C65">
+        <v>3.7455558776855469E-2</v>
+      </c>
+      <c r="D65">
+        <v>12783.621348622983</v>
+      </c>
+      <c r="E65">
+        <v>5480.1568883973987</v>
+      </c>
+      <c r="F65">
+        <v>11549.409303662236</v>
+      </c>
+      <c r="G65">
+        <v>1.1104790509708966E-7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>111.39738464355469</v>
+      </c>
+      <c r="B66">
+        <v>63.584180551501618</v>
+      </c>
+      <c r="C66">
+        <v>4.1222572326660156E-2</v>
+      </c>
+      <c r="D66">
+        <v>13862.946291637067</v>
+      </c>
+      <c r="E66">
+        <v>6167.3817816112751</v>
+      </c>
+      <c r="F66">
+        <v>12415.501675110161</v>
+      </c>
+      <c r="G66">
+        <v>1.1507496833931758E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>100</v>
+      </c>
+      <c r="B67">
+        <v>62.479101465315267</v>
+      </c>
+      <c r="C67">
+        <v>4.5466423034667969E-2</v>
+      </c>
+      <c r="D67">
+        <v>14993.742764050392</v>
+      </c>
+      <c r="E67">
+        <v>6928.1904780035484</v>
+      </c>
+      <c r="F67">
+        <v>13297.086100910021</v>
+      </c>
+      <c r="G67">
+        <v>1.1969159399592301E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>100000</v>
+      </c>
+      <c r="B68">
+        <v>27.597978387360165</v>
+      </c>
+      <c r="C68">
+        <v>0.2384185791015625</v>
+      </c>
+      <c r="D68">
+        <v>99.236098538498538</v>
+      </c>
+      <c r="E68">
+        <v>87.945007855953335</v>
+      </c>
+      <c r="F68">
+        <v>45.97258798848393</v>
+      </c>
+      <c r="G68">
+        <v>3.4619530910847011E-8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>89768.7109375</v>
+      </c>
+      <c r="B69">
+        <v>28.870649180625836</v>
+      </c>
+      <c r="C69">
+        <v>-2.384185791015625E-2</v>
+      </c>
+      <c r="D69">
+        <v>100.45845345040098</v>
+      </c>
+      <c r="E69">
+        <v>87.972671422971061</v>
+      </c>
+      <c r="F69">
+        <v>48.504741545052589</v>
+      </c>
+      <c r="G69">
+        <v>3.6551983414955339E-8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>80584.21875</v>
+      </c>
+      <c r="B70">
+        <v>30.590037016440569</v>
+      </c>
+      <c r="C70">
+        <v>-7.152557373046875E-2</v>
+      </c>
+      <c r="D70">
+        <v>103.83820650362959</v>
+      </c>
+      <c r="E70">
+        <v>89.387098297980572</v>
+      </c>
+      <c r="F70">
+        <v>52.842405204131119</v>
+      </c>
+      <c r="G70">
+        <v>3.7375546778039061E-8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>72339.4140625</v>
+      </c>
+      <c r="B71">
+        <v>32.363664922534795</v>
+      </c>
+      <c r="C71">
+        <v>2.384185791015625E-2</v>
+      </c>
+      <c r="D71">
+        <v>107.67813985539946</v>
+      </c>
+      <c r="E71">
+        <v>90.952231573885683</v>
+      </c>
+      <c r="F71">
+        <v>57.639165282377554</v>
+      </c>
+      <c r="G71">
+        <v>3.8170466005901887E-8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>64938.1640625</v>
+      </c>
+      <c r="B72">
+        <v>34.137042585001076</v>
+      </c>
+      <c r="C72">
+        <v>0.11920928955078125</v>
+      </c>
+      <c r="D72">
+        <v>111.92717220975511</v>
+      </c>
+      <c r="E72">
+        <v>92.641863008979414</v>
+      </c>
+      <c r="F72">
+        <v>62.810644775369632</v>
+      </c>
+      <c r="G72">
+        <v>3.9019964861378069E-8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>58294.15234375</v>
+      </c>
+      <c r="B73">
+        <v>35.887488646294351</v>
+      </c>
+      <c r="C73">
+        <v>-7.152557373046875E-2</v>
+      </c>
+      <c r="D73">
+        <v>116.44179678083432</v>
+      </c>
+      <c r="E73">
+        <v>94.337611365427918</v>
+      </c>
+      <c r="F73">
+        <v>68.257652460472173</v>
+      </c>
+      <c r="G73">
+        <v>3.9998508036794438E-8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>52329.91015625</v>
+      </c>
+      <c r="B74">
+        <v>37.709978819562259</v>
+      </c>
+      <c r="C74">
+        <v>-0.25987625122070313</v>
+      </c>
+      <c r="D74">
+        <v>121.5057113127092</v>
+      </c>
+      <c r="E74">
+        <v>96.12523569105069</v>
+      </c>
+      <c r="F74">
+        <v>74.320770615941413</v>
+      </c>
+      <c r="G74">
+        <v>4.0922290913670433E-8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>46975.88671875</v>
+      </c>
+      <c r="B75">
+        <v>39.52722206565813</v>
+      </c>
+      <c r="C75">
+        <v>-0.23126602172851563</v>
+      </c>
+      <c r="D75">
+        <v>127.24667306683541</v>
+      </c>
+      <c r="E75">
+        <v>98.148194782693466</v>
+      </c>
+      <c r="F75">
+        <v>80.985478127109687</v>
+      </c>
+      <c r="G75">
+        <v>4.1834828647157248E-8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>42169.6484375</v>
+      </c>
+      <c r="B76">
+        <v>41.388294082155355</v>
+      </c>
+      <c r="C76">
+        <v>-0.27418136596679688</v>
+      </c>
+      <c r="D76">
+        <v>133.58928603750391</v>
+      </c>
+      <c r="E76">
+        <v>100.22484946669601</v>
+      </c>
+      <c r="F76">
+        <v>88.323705161118326</v>
+      </c>
+      <c r="G76">
+        <v>4.2730981851199083E-8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>37855.15234375</v>
+      </c>
+      <c r="B77">
+        <v>43.222697035221024</v>
+      </c>
+      <c r="C77">
+        <v>-0.18835067749023438</v>
+      </c>
+      <c r="D77">
+        <v>140.55948290350977</v>
+      </c>
+      <c r="E77">
+        <v>102.42532905030664</v>
+      </c>
+      <c r="F77">
+        <v>96.260169348689942</v>
+      </c>
+      <c r="G77">
+        <v>4.3676568678153347E-8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>33982.08203125</v>
+      </c>
+      <c r="B78">
+        <v>44.908504766285375</v>
+      </c>
+      <c r="C78">
+        <v>-8.8214874267578125E-2</v>
+      </c>
+      <c r="D78">
+        <v>148.66250903489961</v>
+      </c>
+      <c r="E78">
+        <v>105.28799997231955</v>
+      </c>
+      <c r="F78">
+        <v>104.95226845752522</v>
+      </c>
+      <c r="G78">
+        <v>4.4625009110174439E-8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>30505.279296875</v>
+      </c>
+      <c r="B79">
+        <v>46.660619306849263</v>
+      </c>
+      <c r="C79">
+        <v>-0.20742416381835938</v>
+      </c>
+      <c r="D79">
+        <v>157.7452260743255</v>
+      </c>
+      <c r="E79">
+        <v>108.26345206166846</v>
+      </c>
+      <c r="F79">
+        <v>114.72829335839907</v>
+      </c>
+      <c r="G79">
+        <v>4.5475197380169114E-8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>27384.197265625</v>
+      </c>
+      <c r="B80">
+        <v>48.475411538352006</v>
+      </c>
+      <c r="C80">
+        <v>-0.28848648071289063</v>
+      </c>
+      <c r="D80">
+        <v>167.33088756377612</v>
+      </c>
+      <c r="E80">
+        <v>110.93057307343487</v>
+      </c>
+      <c r="F80">
+        <v>125.27583123045086</v>
+      </c>
+      <c r="G80">
+        <v>4.6393039193696913E-8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>24582.44140625</v>
+      </c>
+      <c r="B81">
+        <v>50.397792894738707</v>
+      </c>
+      <c r="C81">
+        <v>-0.22649765014648438</v>
+      </c>
+      <c r="D81">
+        <v>177.54622259026519</v>
+      </c>
+      <c r="E81">
+        <v>113.17749125793107</v>
+      </c>
+      <c r="F81">
+        <v>136.79735607325503</v>
+      </c>
+      <c r="G81">
+        <v>4.7327919677863563E-8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>22067.33984375</v>
+      </c>
+      <c r="B82">
+        <v>52.147062803342273</v>
+      </c>
+      <c r="C82">
+        <v>-0.26941299438476563</v>
+      </c>
+      <c r="D82">
+        <v>189.4329265161536</v>
+      </c>
+      <c r="E82">
+        <v>116.24302215152954</v>
+      </c>
+      <c r="F82">
+        <v>149.57404002551198</v>
+      </c>
+      <c r="G82">
+        <v>4.8218525321708904E-8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>19809.568359375</v>
+      </c>
+      <c r="B83">
+        <v>53.81483182340321</v>
+      </c>
+      <c r="C83">
+        <v>-0.24080276489257813</v>
+      </c>
+      <c r="D83">
+        <v>202.77746222149824</v>
+      </c>
+      <c r="E83">
+        <v>119.71915562928625</v>
+      </c>
+      <c r="F83">
+        <v>163.66436069102485</v>
+      </c>
+      <c r="G83">
+        <v>4.9089770380881511E-8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>17782.794921875</v>
+      </c>
+      <c r="B84">
+        <v>55.428906292099818</v>
+      </c>
+      <c r="C84">
+        <v>-0.17404556274414063</v>
+      </c>
+      <c r="D84">
+        <v>217.57833487949816</v>
+      </c>
+      <c r="E84">
+        <v>123.46012475955273</v>
+      </c>
+      <c r="F84">
+        <v>179.15895010657638</v>
+      </c>
+      <c r="G84">
+        <v>4.9955303612338369E-8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>15963.3857421875</v>
+      </c>
+      <c r="B85">
+        <v>57.038441719469382</v>
+      </c>
+      <c r="C85">
+        <v>-0.16927719116210938</v>
+      </c>
+      <c r="D85">
+        <v>233.89533750753395</v>
+      </c>
+      <c r="E85">
+        <v>127.25689096423088</v>
+      </c>
+      <c r="F85">
+        <v>196.24656075936994</v>
+      </c>
+      <c r="G85">
+        <v>5.0803434018081243E-8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>14330.1259765625</v>
+      </c>
+      <c r="B86">
+        <v>58.662998279066933</v>
+      </c>
+      <c r="C86">
+        <v>-0.16450881958007813</v>
+      </c>
+      <c r="D86">
+        <v>251.6724484595029</v>
+      </c>
+      <c r="E86">
+        <v>130.88749528445263</v>
+      </c>
+      <c r="F86">
+        <v>214.95926333090077</v>
+      </c>
+      <c r="G86">
+        <v>5.1667084811834509E-8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>12863.9697265625</v>
+      </c>
+      <c r="B87">
+        <v>60.194858381209656</v>
+      </c>
+      <c r="C87">
+        <v>-0.14543533325195313</v>
+      </c>
+      <c r="D87">
+        <v>271.56163268411581</v>
+      </c>
+      <c r="E87">
+        <v>134.98020667788001</v>
+      </c>
+      <c r="F87">
+        <v>235.63969137490278</v>
+      </c>
+      <c r="G87">
+        <v>5.250451813166356E-8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>11547.8203125</v>
+      </c>
+      <c r="B88">
+        <v>61.484015966619104</v>
+      </c>
+      <c r="C88">
+        <v>-0.17881393432617188</v>
+      </c>
+      <c r="D88">
+        <v>293.92970273965273</v>
+      </c>
+      <c r="E88">
+        <v>140.32318900704041</v>
+      </c>
+      <c r="F88">
+        <v>258.27131621516747</v>
+      </c>
+      <c r="G88">
+        <v>5.3363454783415021E-8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>10366.3291015625</v>
+      </c>
+      <c r="B89">
+        <v>62.847708448671789</v>
+      </c>
+      <c r="C89">
+        <v>-0.18835067749023438</v>
+      </c>
+      <c r="D89">
+        <v>318.58777922054236</v>
+      </c>
+      <c r="E89">
+        <v>145.38982012092598</v>
+      </c>
+      <c r="F89">
+        <v>283.47834709882488</v>
+      </c>
+      <c r="G89">
+        <v>5.4159574972389621E-8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>9305.720703125</v>
+      </c>
+      <c r="B90">
+        <v>64.333299201084984</v>
+      </c>
+      <c r="C90">
+        <v>5.0067901611328125E-2</v>
+      </c>
+      <c r="D90">
+        <v>342.06239290974361</v>
+      </c>
+      <c r="E90">
+        <v>148.15930497302747</v>
+      </c>
+      <c r="F90">
+        <v>308.31072150194393</v>
+      </c>
+      <c r="G90">
+        <v>5.5472979184495555E-8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>8353.625</v>
+      </c>
+      <c r="B91">
+        <v>65.481254374384378</v>
+      </c>
+      <c r="C91">
+        <v>4.5299530029296875E-2</v>
+      </c>
+      <c r="D91">
+        <v>372.8239802918248</v>
+      </c>
+      <c r="E91">
+        <v>154.7185722136573</v>
+      </c>
+      <c r="F91">
+        <v>339.20478135310276</v>
+      </c>
+      <c r="G91">
+        <v>5.6167253850145509E-8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>7498.94189453125</v>
+      </c>
+      <c r="B92">
+        <v>66.456622873490076</v>
+      </c>
+      <c r="C92">
+        <v>5.9604644775390625E-2</v>
+      </c>
+      <c r="D92">
+        <v>405.90790029567279</v>
+      </c>
+      <c r="E92">
+        <v>162.1371654671631</v>
+      </c>
+      <c r="F92">
+        <v>372.11928611228365</v>
+      </c>
+      <c r="G92">
+        <v>5.7034542738003482E-8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>6731.70361328125</v>
+      </c>
+      <c r="B93">
+        <v>67.512703294703073</v>
+      </c>
+      <c r="C93">
+        <v>5.0067901611328125E-2</v>
+      </c>
+      <c r="D93">
+        <v>443.54817957507112</v>
+      </c>
+      <c r="E93">
+        <v>169.64768038710758</v>
+      </c>
+      <c r="F93">
+        <v>409.82270818444567</v>
+      </c>
+      <c r="G93">
+        <v>5.7689812355415371E-8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>6042.9638671875</v>
+      </c>
+      <c r="B94">
+        <v>68.446289223377775</v>
+      </c>
+      <c r="C94">
+        <v>5.9604644775390625E-2</v>
+      </c>
+      <c r="D94">
+        <v>484.03097772361195</v>
+      </c>
+      <c r="E94">
+        <v>177.82004152085204</v>
+      </c>
+      <c r="F94">
+        <v>450.18442912832757</v>
+      </c>
+      <c r="G94">
+        <v>5.8503205766750285E-8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>5424.69091796875</v>
+      </c>
+      <c r="B95">
+        <v>69.369854416873196</v>
+      </c>
+      <c r="C95">
+        <v>3.5762786865234375E-2</v>
+      </c>
+      <c r="D95">
+        <v>529.62571325193449</v>
+      </c>
+      <c r="E95">
+        <v>186.6051978228227</v>
+      </c>
+      <c r="F95">
+        <v>495.66308747285746</v>
+      </c>
+      <c r="G95">
+        <v>5.9191392277548056E-8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>4869.67529296875</v>
+      </c>
+      <c r="B96">
+        <v>70.07869483667568</v>
+      </c>
+      <c r="C96">
+        <v>3.5762786865234375E-2</v>
+      </c>
+      <c r="D96">
+        <v>579.523340285892</v>
+      </c>
+      <c r="E96">
+        <v>197.46050577185318</v>
+      </c>
+      <c r="F96">
+        <v>544.84552911485082</v>
+      </c>
+      <c r="G96">
+        <v>5.9985562601935935E-8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>4371.44482421875</v>
+      </c>
+      <c r="B97">
+        <v>70.724994157694809</v>
+      </c>
+      <c r="C97">
+        <v>6.4373016357421875E-2</v>
+      </c>
+      <c r="D97">
+        <v>633.64983480972251</v>
+      </c>
+      <c r="E97">
+        <v>209.16948752833798</v>
+      </c>
+      <c r="F97">
+        <v>598.13062005010329</v>
+      </c>
+      <c r="G97">
+        <v>6.0869410350195772E-8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>3924.189697265625</v>
+      </c>
+      <c r="B98">
+        <v>71.374173895385596</v>
+      </c>
+      <c r="C98">
+        <v>6.9141387939453125E-2</v>
+      </c>
+      <c r="D98">
+        <v>694.99572527123667</v>
+      </c>
+      <c r="E98">
+        <v>221.97224110420146</v>
+      </c>
+      <c r="F98">
+        <v>658.59500630089099</v>
+      </c>
+      <c r="G98">
+        <v>6.1581704439425433E-8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>3522.694580078125</v>
+      </c>
+      <c r="B99">
+        <v>71.984590557234554</v>
+      </c>
+      <c r="C99">
+        <v>6.4373016357421875E-2</v>
+      </c>
+      <c r="D99">
+        <v>761.6821406910002</v>
+      </c>
+      <c r="E99">
+        <v>235.56754214277535</v>
+      </c>
+      <c r="F99">
+        <v>724.33943461365993</v>
+      </c>
+      <c r="G99">
+        <v>6.237391594201227E-8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>3162.277587890625</v>
+      </c>
+      <c r="B100">
+        <v>72.453296349676606</v>
+      </c>
+      <c r="C100">
+        <v>5.4836273193359375E-2</v>
+      </c>
+      <c r="D100">
+        <v>835.66815596651543</v>
+      </c>
+      <c r="E100">
+        <v>251.93983055423988</v>
+      </c>
+      <c r="F100">
+        <v>796.78578594047303</v>
+      </c>
+      <c r="G100">
+        <v>6.3165300062949781E-8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>2838.736083984375</v>
+      </c>
+      <c r="B101">
+        <v>72.832187967519104</v>
+      </c>
+      <c r="C101">
+        <v>6.4373016357421875E-2</v>
+      </c>
+      <c r="D101">
+        <v>915.74359374649623</v>
+      </c>
+      <c r="E101">
+        <v>270.30126493263037</v>
+      </c>
+      <c r="F101">
+        <v>874.94202988744803</v>
+      </c>
+      <c r="G101">
+        <v>6.4079015990376468E-8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>2548.296630859375</v>
+      </c>
+      <c r="B102">
+        <v>73.352425391212336</v>
+      </c>
+      <c r="C102">
+        <v>5.0067901611328125E-2</v>
+      </c>
+      <c r="D102">
+        <v>1005.2282037201707</v>
+      </c>
+      <c r="E102">
+        <v>287.98179292234295</v>
+      </c>
+      <c r="F102">
+        <v>963.09409119759096</v>
+      </c>
+      <c r="G102">
+        <v>6.4848723723489633E-8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>2287.5732421875</v>
+      </c>
+      <c r="B103">
+        <v>73.643724959411287</v>
+      </c>
+      <c r="C103">
+        <v>5.0067901611328125E-2</v>
+      </c>
+      <c r="D103">
+        <v>1101.5171588699716</v>
+      </c>
+      <c r="E103">
+        <v>310.19745347441165</v>
+      </c>
+      <c r="F103">
+        <v>1056.9378369341143</v>
+      </c>
+      <c r="G103">
+        <v>6.5825729133195897E-8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>2053.525146484375</v>
+      </c>
+      <c r="B104">
+        <v>73.885568064530219</v>
+      </c>
+      <c r="C104">
+        <v>4.5299530029296875E-2</v>
+      </c>
+      <c r="D104">
+        <v>1210.5292301775046</v>
+      </c>
+      <c r="E104">
+        <v>335.99043804808548</v>
+      </c>
+      <c r="F104">
+        <v>1162.9666558652477</v>
+      </c>
+      <c r="G104">
+        <v>6.6642739784911554E-8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>1843.4229736328125</v>
+      </c>
+      <c r="B105">
+        <v>74.219665192936759</v>
+      </c>
+      <c r="C105">
+        <v>1.9311904907226563E-2</v>
+      </c>
+      <c r="D105">
+        <v>1330.2469898495199</v>
+      </c>
+      <c r="E105">
+        <v>361.76063732861076</v>
+      </c>
+      <c r="F105">
+        <v>1280.1118292099741</v>
+      </c>
+      <c r="G105">
+        <v>6.7444606515186978E-8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>1654.817138671875</v>
+      </c>
+      <c r="B106">
+        <v>74.356170375725043</v>
+      </c>
+      <c r="C106">
+        <v>3.2186508178710938E-2</v>
+      </c>
+      <c r="D106">
+        <v>1454.6793929641685</v>
+      </c>
+      <c r="E106">
+        <v>392.26380251308677</v>
+      </c>
+      <c r="F106">
+        <v>1400.7930773503188</v>
+      </c>
+      <c r="G106">
+        <v>6.8658788298717516E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>1485.508056640625</v>
+      </c>
+      <c r="B107">
+        <v>74.643379664984991</v>
+      </c>
+      <c r="C107">
+        <v>2.0742416381835938E-2</v>
+      </c>
+      <c r="D107">
+        <v>1600.8460020760133</v>
+      </c>
+      <c r="E107">
+        <v>423.94581540022926</v>
+      </c>
+      <c r="F107">
+        <v>1543.6896929005486</v>
+      </c>
+      <c r="G107">
+        <v>6.9404098213873029E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>1333.521484375</v>
+      </c>
+      <c r="B108">
+        <v>74.708167236278854</v>
+      </c>
+      <c r="C108">
+        <v>2.384185791015625E-4</v>
+      </c>
+      <c r="D108">
+        <v>1757.111846390379</v>
+      </c>
+      <c r="E108">
+        <v>463.41286675684046</v>
+      </c>
+      <c r="F108">
+        <v>1694.9013409781744</v>
+      </c>
+      <c r="G108">
+        <v>7.0416703705866128E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>1197.0850830078125</v>
+      </c>
+      <c r="B109">
+        <v>74.413979347481813</v>
+      </c>
+      <c r="C109">
+        <v>3.4570693969726563E-2</v>
+      </c>
+      <c r="D109">
+        <v>1932.2477601414839</v>
+      </c>
+      <c r="E109">
+        <v>519.16563153735706</v>
+      </c>
+      <c r="F109">
+        <v>1861.1954367024971</v>
+      </c>
+      <c r="G109">
+        <v>7.143369802451666E-8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>1074.6077880859375</v>
+      </c>
+      <c r="B110">
+        <v>74.363953632558065</v>
+      </c>
+      <c r="C110">
+        <v>4.6014785766601563E-2</v>
+      </c>
+      <c r="D110">
+        <v>2131.6026764997555</v>
+      </c>
+      <c r="E110">
+        <v>574.52174549364076</v>
+      </c>
+      <c r="F110">
+        <v>2052.7188639499227</v>
+      </c>
+      <c r="G110">
+        <v>7.2150720862683719E-8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>964.66162109375</v>
+      </c>
+      <c r="B111">
+        <v>74.572344029218172</v>
+      </c>
+      <c r="C111">
+        <v>3.0279159545898438E-2</v>
+      </c>
+      <c r="D111">
+        <v>2331.514969999901</v>
+      </c>
+      <c r="E111">
+        <v>620.23297803055266</v>
+      </c>
+      <c r="F111">
+        <v>2247.5037504522638</v>
+      </c>
+      <c r="G111">
+        <v>7.3408222120757811E-8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>865.96429443359375</v>
+      </c>
+      <c r="B112">
+        <v>74.29937966163574</v>
+      </c>
+      <c r="C112">
+        <v>3.4093856811523438E-2</v>
+      </c>
+      <c r="D112">
+        <v>2555.028314698643</v>
+      </c>
+      <c r="E112">
+        <v>691.41843248982559</v>
+      </c>
+      <c r="F112">
+        <v>2459.6971846398292</v>
+      </c>
+      <c r="G112">
+        <v>7.4720281969572142E-8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>777.36505126953125</v>
+      </c>
+      <c r="B113">
+        <v>74.189810508838974</v>
+      </c>
+      <c r="C113">
+        <v>1.5974044799804688E-2</v>
+      </c>
+      <c r="D113">
+        <v>2806.0999218121192</v>
+      </c>
+      <c r="E113">
+        <v>764.52575050347627</v>
+      </c>
+      <c r="F113">
+        <v>2699.9439157158572</v>
+      </c>
+      <c r="G113">
+        <v>7.5829881441011386E-8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>697.83056640625</v>
+      </c>
+      <c r="B114">
+        <v>74.235367244095173</v>
+      </c>
+      <c r="C114">
+        <v>2.3603439331054688E-2</v>
+      </c>
+      <c r="D114">
+        <v>3074.7574365781479</v>
+      </c>
+      <c r="E114">
+        <v>835.36929371536792</v>
+      </c>
+      <c r="F114">
+        <v>2959.1031473928228</v>
+      </c>
+      <c r="G114">
+        <v>7.7074379883699512E-8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>626.43353271484375</v>
+      </c>
+      <c r="B115">
+        <v>73.817944120043848</v>
+      </c>
+      <c r="C115">
+        <v>4.6014785766601563E-2</v>
+      </c>
+      <c r="D115">
+        <v>3385.9586912400659</v>
+      </c>
+      <c r="E115">
+        <v>943.63399164287648</v>
+      </c>
+      <c r="F115">
+        <v>3251.8104416771084</v>
+      </c>
+      <c r="G115">
+        <v>7.8130375779008548E-8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>562.34130859375</v>
+      </c>
+      <c r="B116">
+        <v>73.439170359316378</v>
+      </c>
+      <c r="C116">
+        <v>3.8385391235351563E-2</v>
+      </c>
+      <c r="D116">
+        <v>3705.7179290601675</v>
+      </c>
+      <c r="E116">
+        <v>1056.2524239399168</v>
+      </c>
+      <c r="F116">
+        <v>3551.9960848344172</v>
+      </c>
+      <c r="G116">
+        <v>7.967969555697451E-8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>504.80657958984375</v>
+      </c>
+      <c r="B117">
+        <v>73.063286511428501</v>
+      </c>
+      <c r="C117">
+        <v>6.1273574829101563E-2</v>
+      </c>
+      <c r="D117">
+        <v>4064.0672557014213</v>
+      </c>
+      <c r="E117">
+        <v>1183.9246975651388</v>
+      </c>
+      <c r="F117">
+        <v>3887.7969300568898</v>
+      </c>
+      <c r="G117">
+        <v>8.1094528361764735E-8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>453.15835571289063</v>
+      </c>
+      <c r="B118">
+        <v>72.690917508388608</v>
+      </c>
+      <c r="C118">
+        <v>6.0319900512695313E-2</v>
+      </c>
+      <c r="D118">
+        <v>4455.215081846135</v>
+      </c>
+      <c r="E118">
+        <v>1325.5432956101702</v>
+      </c>
+      <c r="F118">
+        <v>4253.4546426372281</v>
+      </c>
+      <c r="G118">
+        <v>8.2571150024814525E-8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>406.79443359375</v>
+      </c>
+      <c r="B119">
+        <v>72.299492428930904</v>
+      </c>
+      <c r="C119">
+        <v>5.9366226196289063E-2</v>
+      </c>
+      <c r="D119">
+        <v>4882.9107765887738</v>
+      </c>
+      <c r="E119">
+        <v>1484.6075185310322</v>
+      </c>
+      <c r="F119">
+        <v>4651.7478616158805</v>
+      </c>
+      <c r="G119">
+        <v>8.4106384332366678E-8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>365.17413330078125</v>
+      </c>
+      <c r="B120">
+        <v>71.839282822885622</v>
+      </c>
+      <c r="C120">
+        <v>6.2704086303710938E-2</v>
+      </c>
+      <c r="D120">
+        <v>5344.7458188705505</v>
+      </c>
+      <c r="E120">
+        <v>1665.8692461675578</v>
+      </c>
+      <c r="F120">
+        <v>5078.5024882348298</v>
+      </c>
+      <c r="G120">
+        <v>8.581919864112608E-8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>327.81210327148438</v>
+      </c>
+      <c r="B121">
+        <v>71.31630247161884</v>
+      </c>
+      <c r="C121">
+        <v>6.1750411987304688E-2</v>
+      </c>
+      <c r="D121">
+        <v>5849.4009748660537</v>
+      </c>
+      <c r="E121">
+        <v>1873.8173832495102</v>
+      </c>
+      <c r="F121">
+        <v>5541.1461069886882</v>
+      </c>
+      <c r="G121">
+        <v>8.7618445891593349E-8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>294.272705078125</v>
+      </c>
+      <c r="B122">
+        <v>70.753226143312148</v>
+      </c>
+      <c r="C122">
+        <v>3.6954879760742188E-2</v>
+      </c>
+      <c r="D122">
+        <v>6401.4009066382559</v>
+      </c>
+      <c r="E122">
+        <v>2110.1417022984529</v>
+      </c>
+      <c r="F122">
+        <v>6043.6111360452433</v>
+      </c>
+      <c r="G122">
+        <v>8.9489820586553241E-8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>264.16482543945313</v>
+      </c>
+      <c r="B123">
+        <v>70.139743852734455</v>
+      </c>
+      <c r="C123">
+        <v>3.7431716918945313E-2</v>
+      </c>
+      <c r="D123">
+        <v>6992.9450436078532</v>
+      </c>
+      <c r="E123">
+        <v>2375.6938288646188</v>
+      </c>
+      <c r="F123">
+        <v>6577.0327058951298</v>
+      </c>
+      <c r="G123">
+        <v>9.1604148262788013E-8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>237.13737487792969</v>
+      </c>
+      <c r="B124">
+        <v>69.469038701727726</v>
+      </c>
+      <c r="C124">
+        <v>4.0769577026367188E-2</v>
+      </c>
+      <c r="D124">
+        <v>7636.2797054714647</v>
+      </c>
+      <c r="E124">
+        <v>2678.1462742949848</v>
+      </c>
+      <c r="F124">
+        <v>7151.2446660476699</v>
+      </c>
+      <c r="G124">
+        <v>9.3850909763371753E-8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>212.87516784667969</v>
+      </c>
+      <c r="B125">
+        <v>68.761097768249172</v>
+      </c>
+      <c r="C125">
+        <v>4.5061111450195313E-2</v>
+      </c>
+      <c r="D125">
+        <v>8336.3729709367362</v>
+      </c>
+      <c r="E125">
+        <v>3019.9137020679591</v>
+      </c>
+      <c r="F125">
+        <v>7770.1502908648281</v>
+      </c>
+      <c r="G125">
+        <v>9.6220079013937364E-8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>191.09529113769531</v>
+      </c>
+      <c r="B126">
+        <v>67.983726604982863</v>
+      </c>
+      <c r="C126">
+        <v>4.9352645874023438E-2</v>
+      </c>
+      <c r="D126">
+        <v>9091.3179430203763</v>
+      </c>
+      <c r="E126">
+        <v>3408.0616397198437</v>
+      </c>
+      <c r="F126">
+        <v>8428.3555810700309</v>
+      </c>
+      <c r="G126">
+        <v>9.8816006025950269E-8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>171.54379272460938</v>
+      </c>
+      <c r="B127">
+        <v>67.190853698938199</v>
+      </c>
+      <c r="C127">
+        <v>5.1736831665039063E-2</v>
+      </c>
+      <c r="D127">
+        <v>9907.27009618187</v>
+      </c>
+      <c r="E127">
+        <v>3840.6794848509016</v>
+      </c>
+      <c r="F127">
+        <v>9132.5342514192034</v>
+      </c>
+      <c r="G127">
+        <v>1.0159066756027112E-7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>153.99264526367188</v>
+      </c>
+      <c r="B128">
+        <v>66.344654234507118</v>
+      </c>
+      <c r="C128">
+        <v>5.1259994506835938E-2</v>
+      </c>
+      <c r="D128">
+        <v>10781.592220577515</v>
+      </c>
+      <c r="E128">
+        <v>4325.9415965070248</v>
+      </c>
+      <c r="F128">
+        <v>9875.6751725858139</v>
+      </c>
+      <c r="G128">
+        <v>1.046534031750139E-7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>138.23722839355469</v>
+      </c>
+      <c r="B129">
+        <v>65.393657481722713</v>
+      </c>
+      <c r="C129">
+        <v>4.8398971557617188E-2</v>
+      </c>
+      <c r="D129">
+        <v>11714.102344741417</v>
+      </c>
+      <c r="E129">
+        <v>4877.5348046135323</v>
+      </c>
+      <c r="F129">
+        <v>10650.344969664598</v>
+      </c>
+      <c r="G129">
+        <v>1.0810142997169514E-7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>124.09377288818359</v>
+      </c>
+      <c r="B130">
+        <v>64.401660442010197</v>
+      </c>
+      <c r="C130">
+        <v>3.6072731018066406E-2</v>
+      </c>
+      <c r="D130">
+        <v>12730.646718146565</v>
+      </c>
+      <c r="E130">
+        <v>5500.3982987568479</v>
+      </c>
+      <c r="F130">
+        <v>11481.070699951668</v>
+      </c>
+      <c r="G130">
+        <v>1.1170889386526705E-7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>111.39738464355469</v>
+      </c>
+      <c r="B131">
+        <v>63.360426385217153</v>
+      </c>
+      <c r="C131">
+        <v>3.9505958557128906E-2</v>
+      </c>
+      <c r="D131">
+        <v>13806.646310647418</v>
+      </c>
+      <c r="E131">
+        <v>6190.5766367947781</v>
+      </c>
+      <c r="F131">
+        <v>12340.998470597289</v>
+      </c>
+      <c r="G131">
+        <v>1.1576968148760318E-7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>100</v>
+      </c>
+      <c r="B132">
+        <v>62.257830660972473</v>
+      </c>
+      <c r="C132">
+        <v>4.3368339538574219E-2</v>
+      </c>
+      <c r="D132">
+        <v>14936.985364881793</v>
+      </c>
+      <c r="E132">
+        <v>6953.0705528224908</v>
+      </c>
+      <c r="F132">
+        <v>13219.997794181572</v>
+      </c>
+      <c r="G132">
+        <v>1.2038953831137786E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DA8732-E48F-4102-864D-392310B44BBF}">
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6483,13 +9298,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC98CC6-2CB9-4CC8-89DC-B527247FB044}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0F7EE-134E-4D6A-8547-666F71E2862B}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -9520,4 +12333,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EA4E82-A492-4F16-B684-737DD8052161}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>